--- a/data_month/zb/价格指数/农产品集贸市场价格/水果集贸市场价格.xlsx
+++ b/data_month/zb/价格指数/农产品集贸市场价格/水果集贸市场价格.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J229"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7753 +483,5543 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003-01</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.16455696202532</v>
+        <v>20.6971677559913</v>
       </c>
       <c r="C2" t="n">
-        <v>3.28</v>
+        <v>5.54</v>
       </c>
       <c r="D2" t="n">
-        <v>15.9010600706714</v>
+        <v>4.92424242424244</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.725513905683172</v>
+        <v>22.0035778175313</v>
       </c>
       <c r="F2" t="n">
-        <v>3.17</v>
+        <v>6.82</v>
       </c>
       <c r="G2" t="n">
-        <v>9.310344827586221</v>
+        <v>-2.71041369472181</v>
       </c>
       <c r="H2" t="n">
-        <v>-20.4620462046204</v>
+        <v>13.0541871921182</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>4.59</v>
       </c>
       <c r="J2" t="n">
-        <v>11.913357400722</v>
+        <v>-6.51731160896131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003-02</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.7873754152824</v>
+        <v>32.1759259259259</v>
       </c>
       <c r="C3" t="n">
-        <v>3.15</v>
+        <v>5.71</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.96341463414633</v>
+        <v>3.06859205776173</v>
       </c>
       <c r="E3" t="n">
-        <v>2.07570207570207</v>
+        <v>31.2614259597806</v>
       </c>
       <c r="F3" t="n">
-        <v>3.13</v>
+        <v>7.18</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.26182965299685</v>
+        <v>5.27859237536657</v>
       </c>
       <c r="H3" t="n">
-        <v>-12.3102866779089</v>
+        <v>21.8421052631579</v>
       </c>
       <c r="I3" t="n">
-        <v>3.15</v>
+        <v>4.63</v>
       </c>
       <c r="J3" t="n">
-        <v>1.61290322580645</v>
+        <v>0.871459694989113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003-03</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.2432432432432</v>
+        <v>34.2042755344418</v>
       </c>
       <c r="C4" t="n">
-        <v>3.09</v>
+        <v>5.65</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.90476190476191</v>
+        <v>-1.0507880910683</v>
       </c>
       <c r="E4" t="n">
-        <v>1.09223300970874</v>
+        <v>35.3369763205829</v>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>7.43</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.958466453674106</v>
+        <v>3.48189415041782</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.83645655877342</v>
+        <v>32.8767123287671</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>4.85</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.75161987041037</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003-04</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.3310580204778</v>
+        <v>9.13838120104438</v>
       </c>
       <c r="C5" t="n">
-        <v>3.22</v>
+        <v>4.18</v>
       </c>
       <c r="D5" t="n">
-        <v>4.20711974110033</v>
+        <v>-0.712589073634206</v>
       </c>
       <c r="E5" t="n">
-        <v>0.60386473429952</v>
+        <v>17.9381443298969</v>
       </c>
       <c r="F5" t="n">
-        <v>3.19</v>
+        <v>5.72</v>
       </c>
       <c r="G5" t="n">
-        <v>2.90322580645162</v>
+        <v>4.18943533697632</v>
       </c>
       <c r="H5" t="n">
-        <v>3.23159784560143</v>
+        <v>-5.72139303482587</v>
       </c>
       <c r="I5" t="n">
-        <v>3.12</v>
+        <v>3.79</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.952380952380949</v>
+        <v>3.83561643835617</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2003-05</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.5897435897436</v>
+        <v>19.6335078534032</v>
       </c>
       <c r="C6" t="n">
-        <v>3.21</v>
+        <v>4.57</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.310559006211193</v>
+        <v>9.33014354066988</v>
       </c>
       <c r="E6" t="n">
-        <v>4.34258142340171</v>
+        <v>25.1546391752578</v>
       </c>
       <c r="F6" t="n">
-        <v>3.42</v>
+        <v>6.07</v>
       </c>
       <c r="G6" t="n">
-        <v>7.21003134796238</v>
+        <v>6.11888111888112</v>
       </c>
       <c r="H6" t="n">
-        <v>20.0757575757576</v>
+        <v>7.67263427109974</v>
       </c>
       <c r="I6" t="n">
-        <v>3.05</v>
+        <v>4.21</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.24358974358975</v>
+        <v>11.0817941952507</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2003-06</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>22.3958333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>3.46</v>
+        <v>4.7</v>
       </c>
       <c r="D7" t="n">
-        <v>7.78816199376946</v>
+        <v>2.84463894967178</v>
       </c>
       <c r="E7" t="n">
-        <v>2.81848928974068</v>
+        <v>24.9488752556237</v>
       </c>
       <c r="F7" t="n">
-        <v>3.65</v>
+        <v>6.11</v>
       </c>
       <c r="G7" t="n">
-        <v>6.7251461988304</v>
+        <v>0.65897858319606</v>
       </c>
       <c r="H7" t="n">
-        <v>21.5139442231076</v>
+        <v>9.113924050632891</v>
       </c>
       <c r="I7" t="n">
-        <v>2.98</v>
+        <v>4.31</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.29508196721311</v>
+        <v>2.375296912114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2003-07</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.1849427168576</v>
+        <v>18.2926829268293</v>
       </c>
       <c r="C8" t="n">
-        <v>3.37</v>
+        <v>4.85</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.60115606936415</v>
+        <v>3.19148936170212</v>
       </c>
       <c r="E8" t="n">
-        <v>2.21238938053099</v>
+        <v>19.3916349809886</v>
       </c>
       <c r="F8" t="n">
-        <v>3.83</v>
+        <v>6.28</v>
       </c>
       <c r="G8" t="n">
-        <v>4.93150684931507</v>
+        <v>2.78232405891981</v>
       </c>
       <c r="H8" t="n">
-        <v>20.746887966805</v>
+        <v>12.3569794050343</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>4.91</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.68456375838927</v>
+        <v>13.9211136890951</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2003-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.7131782945736</v>
+        <v>15.0341685649203</v>
       </c>
       <c r="C9" t="n">
-        <v>3.62</v>
+        <v>5.05</v>
       </c>
       <c r="D9" t="n">
-        <v>7.41839762611276</v>
+        <v>4.1237113402062</v>
       </c>
       <c r="E9" t="n">
-        <v>3.02690582959642</v>
+        <v>7.93388429752066</v>
       </c>
       <c r="F9" t="n">
-        <v>3.86</v>
+        <v>6.53</v>
       </c>
       <c r="G9" t="n">
-        <v>0.783289817232372</v>
+        <v>3.98089171974523</v>
       </c>
       <c r="H9" t="n">
-        <v>21.2631578947368</v>
+        <v>1.5625</v>
       </c>
       <c r="I9" t="n">
-        <v>2.95</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.72413793103449</v>
+        <v>5.90631364562117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2003-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.210843373494</v>
+        <v>14.5695364238411</v>
       </c>
       <c r="C10" t="n">
-        <v>3.98</v>
+        <v>5.19</v>
       </c>
       <c r="D10" t="n">
-        <v>9.94475138121547</v>
+        <v>2.77227722772278</v>
       </c>
       <c r="E10" t="n">
-        <v>6.64335664335664</v>
+        <v>1.60349854227404</v>
       </c>
       <c r="F10" t="n">
-        <v>3.56</v>
+        <v>6.97</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.7720207253886</v>
+        <v>6.73813169984685</v>
       </c>
       <c r="H10" t="n">
-        <v>19.8731501057082</v>
+        <v>4.75247524752476</v>
       </c>
       <c r="I10" t="n">
-        <v>3.15</v>
+        <v>5.29</v>
       </c>
       <c r="J10" t="n">
-        <v>6.77966101694913</v>
+        <v>1.73076923076923</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2003-10</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.0418410041841</v>
+        <v>12.472647702407</v>
       </c>
       <c r="C11" t="n">
-        <v>3.67</v>
+        <v>5.14</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.7889447236181</v>
+        <v>-0.963391136801548</v>
       </c>
       <c r="E11" t="n">
-        <v>4.29082240762813</v>
+        <v>-1.37362637362638</v>
       </c>
       <c r="F11" t="n">
-        <v>3.16</v>
+        <v>7.18</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.2359550561798</v>
+        <v>3.01291248206599</v>
       </c>
       <c r="H11" t="n">
-        <v>5.56701030927836</v>
+        <v>4.09836065573769</v>
       </c>
       <c r="I11" t="n">
-        <v>3.15</v>
+        <v>5.08</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-3.96975425330814</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2003-11</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.47826086956519</v>
+        <v>10.6837606837607</v>
       </c>
       <c r="C12" t="n">
-        <v>3.44</v>
+        <v>5.18</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.26702997275204</v>
+        <v>0.778210116731515</v>
       </c>
       <c r="E12" t="n">
-        <v>6.14250614250614</v>
+        <v>8.805970149253721</v>
       </c>
       <c r="F12" t="n">
-        <v>3.07</v>
+        <v>7.29</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.84810126582279</v>
+        <v>1.53203342618384</v>
       </c>
       <c r="H12" t="n">
-        <v>9.05172413793103</v>
+        <v>5.48523206751055</v>
       </c>
       <c r="I12" t="n">
-        <v>3.31</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>5.07936507936509</v>
+        <v>-1.5748031496063</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2003-12</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.57276995305165</v>
+        <v>12.3404255319149</v>
       </c>
       <c r="C13" t="n">
-        <v>3.48</v>
+        <v>5.28</v>
       </c>
       <c r="D13" t="n">
-        <v>1.16279069767442</v>
+        <v>1.93050193050195</v>
       </c>
       <c r="E13" t="n">
-        <v>8.03461063040791</v>
+        <v>15.4859967051071</v>
       </c>
       <c r="F13" t="n">
-        <v>3.03</v>
+        <v>7.01</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.30293159609121</v>
+        <v>-3.84087791495199</v>
       </c>
       <c r="H13" t="n">
-        <v>16.7755991285403</v>
+        <v>13.3949191685912</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>4.91</v>
       </c>
       <c r="J13" t="n">
-        <v>1.20845921450152</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2004-01</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.6219512195122</v>
+        <v>36.101083032491</v>
       </c>
       <c r="C14" t="n">
-        <v>3.53</v>
+        <v>7.54</v>
       </c>
       <c r="D14" t="n">
-        <v>1.43678160919541</v>
+        <v>-1.43790849673204</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.946372239747632</v>
+        <v>14.2228739002932</v>
       </c>
       <c r="F14" t="n">
-        <v>3.14</v>
+        <v>7.79</v>
       </c>
       <c r="G14" t="n">
-        <v>3.63036303630363</v>
+        <v>-2.7465667915106</v>
       </c>
       <c r="H14" t="n">
-        <v>15.1612903225806</v>
+        <v>21.1328976034858</v>
       </c>
       <c r="I14" t="n">
-        <v>3.57</v>
+        <v>5.56</v>
       </c>
       <c r="J14" t="n">
-        <v>6.56716417910448</v>
+        <v>10.3174603174603</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2004-02</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.571428571428569</v>
+        <v>23.9929947460595</v>
       </c>
       <c r="C15" t="n">
-        <v>3.42</v>
+        <v>7.08</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.11614730878188</v>
+        <v>-6.10079575596816</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.638977635782751</v>
+        <v>6.54596100278553</v>
       </c>
       <c r="F15" t="n">
-        <v>3.11</v>
+        <v>7.65</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.9554140127388711</v>
+        <v>-1.79717586649551</v>
       </c>
       <c r="H15" t="n">
-        <v>9.841269841269851</v>
+        <v>27.2138228941685</v>
       </c>
       <c r="I15" t="n">
-        <v>3.46</v>
+        <v>5.89</v>
       </c>
       <c r="J15" t="n">
-        <v>-3.0812324929972</v>
+        <v>5.93525179856115</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2004-03</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.915857605178</v>
+        <v>16.1061946902655</v>
       </c>
       <c r="C16" t="n">
-        <v>3.52</v>
+        <v>6.56</v>
       </c>
       <c r="D16" t="n">
-        <v>2.92397660818713</v>
+        <v>-7.34463276836159</v>
       </c>
       <c r="E16" t="n">
-        <v>2.25806451612902</v>
+        <v>6.05652759084792</v>
       </c>
       <c r="F16" t="n">
-        <v>3.17</v>
+        <v>7.88</v>
       </c>
       <c r="G16" t="n">
-        <v>1.92926045016077</v>
+        <v>3.00653594771241</v>
       </c>
       <c r="H16" t="n">
-        <v>10.7936507936508</v>
+        <v>20.8247422680412</v>
       </c>
       <c r="I16" t="n">
-        <v>3.49</v>
+        <v>5.86</v>
       </c>
       <c r="J16" t="n">
-        <v>0.867052023121389</v>
+        <v>-0.509337860780974</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2004-04</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.31677018633539</v>
+        <v>38.755980861244</v>
       </c>
       <c r="C17" t="n">
-        <v>3.52</v>
+        <v>5.8</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.65486725663715</v>
       </c>
       <c r="E17" t="n">
-        <v>7.8369905956113</v>
+        <v>40.9090909090909</v>
       </c>
       <c r="F17" t="n">
-        <v>3.44</v>
+        <v>8.06</v>
       </c>
       <c r="G17" t="n">
-        <v>8.5173501577287</v>
+        <v>8.479138627187099</v>
       </c>
       <c r="H17" t="n">
-        <v>21.7948717948718</v>
+        <v>37.2031662269129</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="J17" t="n">
-        <v>8.882521489971319</v>
+        <v>7.21649484536084</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2004-05</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13.3956386292835</v>
+        <v>36.7614879649891</v>
       </c>
       <c r="C18" t="n">
-        <v>3.64</v>
+        <v>6.25</v>
       </c>
       <c r="D18" t="n">
-        <v>3.40909090909092</v>
+        <v>7.75862068965519</v>
       </c>
       <c r="E18" t="n">
-        <v>7.30994152046785</v>
+        <v>37.5617792421746</v>
       </c>
       <c r="F18" t="n">
-        <v>3.67</v>
+        <v>8.35</v>
       </c>
       <c r="G18" t="n">
-        <v>6.68604651162789</v>
+        <v>3.59801488833746</v>
       </c>
       <c r="H18" t="n">
-        <v>29.1803278688525</v>
+        <v>35.3919239904988</v>
       </c>
       <c r="I18" t="n">
-        <v>3.94</v>
+        <v>5.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.68421052631579</v>
+        <v>9.615384615384629</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2004-06</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.62427745664739</v>
+        <v>33.1914893617021</v>
       </c>
       <c r="C19" t="n">
-        <v>3.62</v>
+        <v>6.26</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.5494505494505399</v>
+        <v>0.160000000000011</v>
       </c>
       <c r="E19" t="n">
-        <v>6.57534246575342</v>
+        <v>37.4795417348609</v>
       </c>
       <c r="F19" t="n">
-        <v>3.89</v>
+        <v>8.4</v>
       </c>
       <c r="G19" t="n">
-        <v>5.99455040871935</v>
+        <v>0.598802395209603</v>
       </c>
       <c r="H19" t="n">
-        <v>26.510067114094</v>
+        <v>38.5150812064965</v>
       </c>
       <c r="I19" t="n">
-        <v>3.77</v>
+        <v>5.97</v>
       </c>
       <c r="J19" t="n">
-        <v>-4.31472081218274</v>
+        <v>4.73684210526315</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2004-07</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.2759643916914</v>
+        <v>36.4948453608247</v>
       </c>
       <c r="C20" t="n">
-        <v>3.75</v>
+        <v>6.62</v>
       </c>
       <c r="D20" t="n">
-        <v>3.59116022099448</v>
+        <v>5.75079872204473</v>
       </c>
       <c r="E20" t="n">
-        <v>4.177545691906</v>
+        <v>35.6687898089172</v>
       </c>
       <c r="F20" t="n">
-        <v>3.99</v>
+        <v>8.52</v>
       </c>
       <c r="G20" t="n">
-        <v>2.57069408740361</v>
+        <v>1.42857142857142</v>
       </c>
       <c r="H20" t="n">
-        <v>21.0344827586207</v>
+        <v>40.7331975560082</v>
       </c>
       <c r="I20" t="n">
-        <v>3.51</v>
+        <v>6.91</v>
       </c>
       <c r="J20" t="n">
-        <v>-6.89655172413794</v>
+        <v>15.7453936348409</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2004-08</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.20994475138122</v>
+        <v>35.049504950495</v>
       </c>
       <c r="C21" t="n">
-        <v>3.7</v>
+        <v>6.82</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.33333333333333</v>
+        <v>3.02114803625378</v>
       </c>
       <c r="E21" t="n">
-        <v>1.55440414507773</v>
+        <v>31.8529862174579</v>
       </c>
       <c r="F21" t="n">
-        <v>3.92</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.75438596491229</v>
+        <v>1.05633802816899</v>
       </c>
       <c r="H21" t="n">
-        <v>17.6271186440678</v>
+        <v>21.1538461538461</v>
       </c>
       <c r="I21" t="n">
-        <v>3.47</v>
+        <v>6.3</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.13960113960113</v>
+        <v>-8.827785817655579</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2004-09</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-7.03517587939699</v>
+        <v>32.7552986512524</v>
       </c>
       <c r="C22" t="n">
-        <v>3.7</v>
+        <v>6.89</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.02639296187684</v>
       </c>
       <c r="E22" t="n">
-        <v>3.08988764044943</v>
+        <v>24.2467718794835</v>
       </c>
       <c r="F22" t="n">
-        <v>3.67</v>
+        <v>8.66</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.37755102040816</v>
+        <v>0.580720092915229</v>
       </c>
       <c r="H22" t="n">
-        <v>5.71428571428572</v>
+        <v>-0.756143667296783</v>
       </c>
       <c r="I22" t="n">
-        <v>3.33</v>
+        <v>5.25</v>
       </c>
       <c r="J22" t="n">
-        <v>-4.03458213256485</v>
+        <v>-16.6666666666667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2004-10</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2.72479564032699</v>
+        <v>39.2996108949417</v>
       </c>
       <c r="C23" t="n">
-        <v>3.57</v>
+        <v>7.16</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.51351351351352</v>
+        <v>3.91872278664734</v>
       </c>
       <c r="E23" t="n">
-        <v>4.11392405063292</v>
+        <v>20.1949860724234</v>
       </c>
       <c r="F23" t="n">
-        <v>3.29</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>-10.3542234332425</v>
+        <v>-0.346420323325631</v>
       </c>
       <c r="H23" t="n">
-        <v>2.22222222222224</v>
+        <v>-12.7952755905512</v>
       </c>
       <c r="I23" t="n">
-        <v>3.22</v>
+        <v>4.43</v>
       </c>
       <c r="J23" t="n">
-        <v>-3.30330330330329</v>
+        <v>-15.6190476190476</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2004-11</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.16279069767442</v>
+        <v>39.1891891891892</v>
       </c>
       <c r="C24" t="n">
-        <v>3.4</v>
+        <v>7.21</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.76190476190476</v>
+        <v>0.69832402234637</v>
       </c>
       <c r="E24" t="n">
-        <v>4.88599348534203</v>
+        <v>13.0315500685871</v>
       </c>
       <c r="F24" t="n">
-        <v>3.22</v>
+        <v>8.24</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.12765957446808</v>
+        <v>-4.51911935110083</v>
       </c>
       <c r="H24" t="n">
-        <v>-4.22960725075529</v>
+        <v>-10</v>
       </c>
       <c r="I24" t="n">
-        <v>3.17</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.55279503105591</v>
+        <v>1.58013544018058</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2004-12</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-6.32183908045978</v>
+        <v>44.8863636363637</v>
       </c>
       <c r="C25" t="n">
-        <v>3.26</v>
+        <v>7.65</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.11764705882354</v>
+        <v>6.10263522884881</v>
       </c>
       <c r="E25" t="n">
-        <v>4.62046204620464</v>
+        <v>14.265335235378</v>
       </c>
       <c r="F25" t="n">
-        <v>3.17</v>
+        <v>8.01</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.55279503105591</v>
+        <v>-2.79126213592234</v>
       </c>
       <c r="H25" t="n">
-        <v>-4.47761194029852</v>
+        <v>2.64765784114054</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>5.04</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9463722397476459</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2005-01</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-11.0481586402266</v>
+        <v>-4.90716180371354</v>
       </c>
       <c r="C26" t="n">
-        <v>3.14</v>
+        <v>7.17</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.68098159509202</v>
+        <v>7.98192771084338</v>
       </c>
       <c r="E26" t="n">
-        <v>3.18471337579618</v>
+        <v>7.70218228498074</v>
       </c>
       <c r="F26" t="n">
-        <v>3.24</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>2.20820189274448</v>
+        <v>-2.21445221445221</v>
       </c>
       <c r="H26" t="n">
-        <v>-9.24369747899159</v>
+        <v>-12.7697841726619</v>
       </c>
       <c r="I26" t="n">
-        <v>3.24</v>
+        <v>4.85</v>
       </c>
       <c r="J26" t="n">
-        <v>1.25</v>
+        <v>2.53699788583508</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2005-02</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-4.67836257309942</v>
+        <v>-2.54237288135593</v>
       </c>
       <c r="C27" t="n">
-        <v>3.26</v>
+        <v>6.9</v>
       </c>
       <c r="D27" t="n">
-        <v>3.82165605095541</v>
+        <v>-3.76569037656903</v>
       </c>
       <c r="E27" t="n">
-        <v>7.39549839228296</v>
+        <v>6.40522875816994</v>
       </c>
       <c r="F27" t="n">
-        <v>3.34</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>3.08641975308642</v>
+        <v>-2.97973778307508</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.73410404624278</v>
+        <v>-21.2224108658744</v>
       </c>
       <c r="I27" t="n">
-        <v>3.4</v>
+        <v>4.64</v>
       </c>
       <c r="J27" t="n">
-        <v>4.93827160493827</v>
+        <v>-4.32989690721649</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2005-03</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-7.67045454545455</v>
+        <v>-2.59146341463415</v>
       </c>
       <c r="C28" t="n">
-        <v>3.25</v>
+        <v>6.39</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.306748466257673</v>
+        <v>-7.39130434782609</v>
       </c>
       <c r="E28" t="n">
-        <v>3.78548895899054</v>
+        <v>2.66497461928934</v>
       </c>
       <c r="F28" t="n">
-        <v>3.29</v>
+        <v>8.09</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.49700598802394</v>
+        <v>-0.614250614250622</v>
       </c>
       <c r="H28" t="n">
-        <v>-5.73065902578797</v>
+        <v>-21.6723549488055</v>
       </c>
       <c r="I28" t="n">
-        <v>3.29</v>
+        <v>4.59</v>
       </c>
       <c r="J28" t="n">
-        <v>-3.23529411764706</v>
+        <v>-1.07758620689656</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2005-04</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-8.23863636363637</v>
+        <v>8.965517241379329</v>
       </c>
       <c r="C29" t="n">
-        <v>3.23</v>
+        <v>6.32</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.615384615384613</v>
+        <v>-3.65853658536585</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.1046511627907</v>
+        <v>2.60545905707194</v>
       </c>
       <c r="F29" t="n">
-        <v>3.23</v>
+        <v>8.27</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.82370820668693</v>
+        <v>4.94923857868019</v>
       </c>
       <c r="H29" t="n">
-        <v>-15.2631578947368</v>
+        <v>16.5384615384615</v>
       </c>
       <c r="I29" t="n">
-        <v>3.22</v>
+        <v>6.06</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.12765957446808</v>
+        <v>3.41296928327644</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2005-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-11.2637362637363</v>
+        <v>-3.68000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>3.23</v>
+        <v>6.02</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-4.74683544303799</v>
       </c>
       <c r="E30" t="n">
-        <v>-10.8991825613079</v>
+        <v>-1.91616766467067</v>
       </c>
       <c r="F30" t="n">
-        <v>3.27</v>
+        <v>8.19</v>
       </c>
       <c r="G30" t="n">
-        <v>1.23839009287924</v>
+        <v>-0.9673518742442579</v>
       </c>
       <c r="H30" t="n">
-        <v>-20.3045685279188</v>
+        <v>4.03508771929823</v>
       </c>
       <c r="I30" t="n">
-        <v>3.14</v>
+        <v>5.93</v>
       </c>
       <c r="J30" t="n">
-        <v>-2.48447204968944</v>
+        <v>-2.14521452145215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2005-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-9.66850828729282</v>
+        <v>-5.43130990415335</v>
       </c>
       <c r="C31" t="n">
-        <v>3.27</v>
+        <v>5.92</v>
       </c>
       <c r="D31" t="n">
-        <v>1.23839009287924</v>
+        <v>-1.6611295681063</v>
       </c>
       <c r="E31" t="n">
-        <v>-11.8251928020566</v>
+        <v>-1.90476190476191</v>
       </c>
       <c r="F31" t="n">
-        <v>3.43</v>
+        <v>8.24</v>
       </c>
       <c r="G31" t="n">
-        <v>4.89296636085628</v>
+        <v>0.610500610500608</v>
       </c>
       <c r="H31" t="n">
-        <v>-19.0981432360743</v>
+        <v>-1.67504187604689</v>
       </c>
       <c r="I31" t="n">
-        <v>3.05</v>
+        <v>5.87</v>
       </c>
       <c r="J31" t="n">
-        <v>-2.86624203821657</v>
+        <v>-1.01180438448566</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2005-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-12</v>
+        <v>-11.4803625377643</v>
       </c>
       <c r="C32" t="n">
-        <v>3.3</v>
+        <v>5.86</v>
       </c>
       <c r="D32" t="n">
-        <v>0.917431192660544</v>
+        <v>-1.01351351351352</v>
       </c>
       <c r="E32" t="n">
-        <v>-7.01754385964913</v>
+        <v>-2.81690140845072</v>
       </c>
       <c r="F32" t="n">
-        <v>3.71</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>8.16326530612244</v>
+        <v>0.485436893203882</v>
       </c>
       <c r="H32" t="n">
-        <v>-12.5356125356125</v>
+        <v>-19.3921852387844</v>
       </c>
       <c r="I32" t="n">
-        <v>3.07</v>
+        <v>5.57</v>
       </c>
       <c r="J32" t="n">
-        <v>0.655737704918025</v>
+        <v>-5.11073253833048</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2005-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-12.1621621621622</v>
+        <v>-14.2228739002933</v>
       </c>
       <c r="C33" t="n">
-        <v>3.25</v>
+        <v>5.85</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.51515151515152</v>
+        <v>-0.170648464163833</v>
       </c>
       <c r="E33" t="n">
-        <v>-2.29591836734693</v>
+        <v>-3.71660859465737</v>
       </c>
       <c r="F33" t="n">
-        <v>3.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>3.23450134770891</v>
+        <v>0.120772946859901</v>
       </c>
       <c r="H33" t="n">
-        <v>-7.78097982708934</v>
+        <v>-16.1904761904762</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>5.28</v>
       </c>
       <c r="J33" t="n">
-        <v>4.23452768729642</v>
+        <v>-5.2064631956912</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2005-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-9.72972972972974</v>
+        <v>-12.9172714078374</v>
       </c>
       <c r="C34" t="n">
-        <v>3.34</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>2.76923076923077</v>
+        <v>2.56410256410258</v>
       </c>
       <c r="E34" t="n">
-        <v>3.26975476839237</v>
+        <v>2.42494226327943</v>
       </c>
       <c r="F34" t="n">
-        <v>3.79</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.0443864229765</v>
+        <v>6.99638118214716</v>
       </c>
       <c r="H34" t="n">
-        <v>5.1051051051051</v>
+        <v>-4.38095238095238</v>
       </c>
       <c r="I34" t="n">
-        <v>3.5</v>
+        <v>5.02</v>
       </c>
       <c r="J34" t="n">
-        <v>9.375</v>
+        <v>-4.92424242424244</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2005-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-8.123249299719889</v>
+        <v>-14.6648044692737</v>
       </c>
       <c r="C35" t="n">
-        <v>3.28</v>
+        <v>6.11</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.79640718562875</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="E35" t="n">
-        <v>8.206686930091189</v>
+        <v>4.75086906141364</v>
       </c>
       <c r="F35" t="n">
-        <v>3.56</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.06860158311345</v>
+        <v>1.91657271702368</v>
       </c>
       <c r="H35" t="n">
-        <v>8.07453416149068</v>
+        <v>8.803611738149019</v>
       </c>
       <c r="I35" t="n">
-        <v>3.48</v>
+        <v>4.82</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.571428571428569</v>
+        <v>-3.98406374501991</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2005-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-2.35294117647059</v>
+        <v>-10.5409153952843</v>
       </c>
       <c r="C36" t="n">
-        <v>3.32</v>
+        <v>6.45</v>
       </c>
       <c r="D36" t="n">
-        <v>1.21951219512195</v>
+        <v>5.56464811783961</v>
       </c>
       <c r="E36" t="n">
-        <v>10.5590062111801</v>
+        <v>8.25242718446601</v>
       </c>
       <c r="F36" t="n">
-        <v>3.56</v>
+        <v>8.92</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-1.32743362831857</v>
       </c>
       <c r="H36" t="n">
-        <v>9.148264984227129</v>
+        <v>5.55555555555556</v>
       </c>
       <c r="I36" t="n">
-        <v>3.46</v>
+        <v>4.75</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.574712643678168</v>
+        <v>-1.45228215767635</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2005-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.68098159509203</v>
+        <v>-13.202614379085</v>
       </c>
       <c r="C37" t="n">
-        <v>3.38</v>
+        <v>6.64</v>
       </c>
       <c r="D37" t="n">
-        <v>1.80722891566265</v>
+        <v>2.94573643410851</v>
       </c>
       <c r="E37" t="n">
-        <v>15.1419558359621</v>
+        <v>7.11610486891385</v>
       </c>
       <c r="F37" t="n">
-        <v>3.65</v>
+        <v>8.58</v>
       </c>
       <c r="G37" t="n">
-        <v>2.52808988764043</v>
+        <v>-3.81165919282512</v>
       </c>
       <c r="H37" t="n">
-        <v>6.87499999999999</v>
+        <v>-6.15079365079364</v>
       </c>
       <c r="I37" t="n">
-        <v>3.42</v>
+        <v>4.73</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.15606936416185</v>
+        <v>-0.421052631578931</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2006-01</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17.1974522292994</v>
+        <v>10.0418410041841</v>
       </c>
       <c r="C38" t="n">
-        <v>3.68</v>
+        <v>7.89</v>
       </c>
       <c r="D38" t="n">
-        <v>8.875739644970411</v>
+        <v>3.13725490196077</v>
       </c>
       <c r="E38" t="n">
-        <v>21.9135802469136</v>
+        <v>4.29082240762813</v>
       </c>
       <c r="F38" t="n">
-        <v>3.95</v>
+        <v>8.75</v>
       </c>
       <c r="G38" t="n">
-        <v>8.219178082191791</v>
+        <v>-4.37158469945356</v>
       </c>
       <c r="H38" t="n">
-        <v>10.1851851851852</v>
+        <v>5.56701030927836</v>
       </c>
       <c r="I38" t="n">
-        <v>3.57</v>
+        <v>5.12</v>
       </c>
       <c r="J38" t="n">
-        <v>4.3859649122807</v>
+        <v>-9.700176366843021</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2006-02</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15.0306748466258</v>
+        <v>3.47826086956519</v>
       </c>
       <c r="C39" t="n">
-        <v>3.75</v>
+        <v>7.14</v>
       </c>
       <c r="D39" t="n">
-        <v>1.90217391304348</v>
+        <v>-9.50570342205323</v>
       </c>
       <c r="E39" t="n">
-        <v>21.8562874251497</v>
+        <v>6.14250614250614</v>
       </c>
       <c r="F39" t="n">
-        <v>4.07</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>3.03797468354429</v>
+        <v>-1.25714285714284</v>
       </c>
       <c r="H39" t="n">
-        <v>5.29411764705883</v>
+        <v>9.05172413793103</v>
       </c>
       <c r="I39" t="n">
-        <v>3.58</v>
+        <v>5.06</v>
       </c>
       <c r="J39" t="n">
-        <v>0.280112044817926</v>
+        <v>-1.17187500000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2006-03</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.5384615384615</v>
+        <v>6.57276995305165</v>
       </c>
       <c r="C40" t="n">
-        <v>3.82</v>
+        <v>6.81</v>
       </c>
       <c r="D40" t="n">
-        <v>1.86666666666666</v>
+        <v>-4.6218487394958</v>
       </c>
       <c r="E40" t="n">
-        <v>27.355623100304</v>
+        <v>8.03461063040791</v>
       </c>
       <c r="F40" t="n">
-        <v>4.19</v>
+        <v>8.74</v>
       </c>
       <c r="G40" t="n">
-        <v>2.94840294840296</v>
+        <v>1.15740740740739</v>
       </c>
       <c r="H40" t="n">
-        <v>13.3738601823708</v>
+        <v>16.7755991285403</v>
       </c>
       <c r="I40" t="n">
-        <v>3.73</v>
+        <v>5.36</v>
       </c>
       <c r="J40" t="n">
-        <v>4.1899441340782</v>
+        <v>5.92885375494072</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2006-04</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.4829721362229</v>
+        <v>3.16455696202532</v>
       </c>
       <c r="C41" t="n">
-        <v>4.15</v>
+        <v>6.52</v>
       </c>
       <c r="D41" t="n">
-        <v>8.6387434554974</v>
+        <v>2.03442879499218</v>
       </c>
       <c r="E41" t="n">
-        <v>42.4148606811145</v>
+        <v>-0.725513905683172</v>
       </c>
       <c r="F41" t="n">
-        <v>4.6</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>9.7852028639618</v>
+        <v>1.48331273176763</v>
       </c>
       <c r="H41" t="n">
-        <v>22.9813664596273</v>
+        <v>-20.4620462046204</v>
       </c>
       <c r="I41" t="n">
-        <v>3.96</v>
+        <v>4.82</v>
       </c>
       <c r="J41" t="n">
-        <v>6.1662198391421</v>
+        <v>5.01089324618738</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2006-05</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.8421052631579</v>
+        <v>13.7873754152824</v>
       </c>
       <c r="C42" t="n">
-        <v>4.42</v>
+        <v>6.85</v>
       </c>
       <c r="D42" t="n">
-        <v>6.50602409638552</v>
+        <v>5.06134969325154</v>
       </c>
       <c r="E42" t="n">
-        <v>62.9969418960245</v>
+        <v>2.07570207570207</v>
       </c>
       <c r="F42" t="n">
-        <v>5.33</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>15.8695652173913</v>
+        <v>1.82704019488426</v>
       </c>
       <c r="H42" t="n">
-        <v>30.2547770700637</v>
+        <v>-12.3102866779089</v>
       </c>
       <c r="I42" t="n">
-        <v>4.09</v>
+        <v>5.2</v>
       </c>
       <c r="J42" t="n">
-        <v>3.28282828282829</v>
+        <v>7.88381742738589</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2006-06</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.0030581039755</v>
+        <v>18.2432432432432</v>
       </c>
       <c r="C43" t="n">
-        <v>4.48</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>1.35746606334844</v>
+        <v>2.18978102189781</v>
       </c>
       <c r="E43" t="n">
-        <v>68.5131195335277</v>
+        <v>1.09223300970874</v>
       </c>
       <c r="F43" t="n">
-        <v>5.78</v>
+        <v>8.33</v>
       </c>
       <c r="G43" t="n">
-        <v>8.44277673545966</v>
+        <v>-0.35885167464113</v>
       </c>
       <c r="H43" t="n">
-        <v>28.5245901639344</v>
+        <v>-7.83645655877342</v>
       </c>
       <c r="I43" t="n">
-        <v>3.92</v>
+        <v>5.41</v>
       </c>
       <c r="J43" t="n">
-        <v>-4.15647921760392</v>
+        <v>4.03846153846155</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2006-07</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>34.5454545454546</v>
+        <v>21.3310580204778</v>
       </c>
       <c r="C44" t="n">
-        <v>4.44</v>
+        <v>7.11</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.892857142857139</v>
+        <v>1.57142857142858</v>
       </c>
       <c r="E44" t="n">
-        <v>57.6819407008086</v>
+        <v>0.60386473429952</v>
       </c>
       <c r="F44" t="n">
-        <v>5.85</v>
+        <v>8.33</v>
       </c>
       <c r="G44" t="n">
-        <v>1.21107266435985</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>14.9837133550489</v>
+        <v>3.23159784560143</v>
       </c>
       <c r="I44" t="n">
-        <v>3.53</v>
+        <v>5.75</v>
       </c>
       <c r="J44" t="n">
-        <v>-9.94897959183673</v>
+        <v>6.28465804066542</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2006-08</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.1538461538462</v>
+        <v>23.5897435897436</v>
       </c>
       <c r="C45" t="n">
-        <v>4.36</v>
+        <v>7.23</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.8018018018018</v>
+        <v>1.68776371308017</v>
       </c>
       <c r="E45" t="n">
-        <v>37.8590078328982</v>
+        <v>4.34258142340171</v>
       </c>
       <c r="F45" t="n">
-        <v>5.28</v>
+        <v>8.65</v>
       </c>
       <c r="G45" t="n">
-        <v>-9.743589743589739</v>
+        <v>3.84153661464586</v>
       </c>
       <c r="H45" t="n">
-        <v>6.5625</v>
+        <v>20.0757575757576</v>
       </c>
       <c r="I45" t="n">
-        <v>3.41</v>
+        <v>6.34</v>
       </c>
       <c r="J45" t="n">
-        <v>-3.39943342776203</v>
+        <v>10.2608695652174</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2006-09</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.1377245508982</v>
+        <v>19</v>
       </c>
       <c r="C46" t="n">
-        <v>4.38</v>
+        <v>7.14</v>
       </c>
       <c r="D46" t="n">
-        <v>0.458715596330265</v>
+        <v>-1.24481327800831</v>
       </c>
       <c r="E46" t="n">
-        <v>26.1213720316623</v>
+        <v>2.81848928974068</v>
       </c>
       <c r="F46" t="n">
-        <v>4.78</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>-9.469696969696971</v>
+        <v>5.43352601156069</v>
       </c>
       <c r="H46" t="n">
-        <v>-3.42857142857143</v>
+        <v>21.5139442231076</v>
       </c>
       <c r="I46" t="n">
-        <v>3.38</v>
+        <v>6.1</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.879765395894438</v>
+        <v>-3.78548895899054</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2006-10</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>27.7439024390244</v>
+        <v>17.1849427168576</v>
       </c>
       <c r="C47" t="n">
-        <v>4.19</v>
+        <v>7.16</v>
       </c>
       <c r="D47" t="n">
-        <v>-4.33789954337898</v>
+        <v>0.280112044817926</v>
       </c>
       <c r="E47" t="n">
-        <v>23.314606741573</v>
+        <v>2.21238938053099</v>
       </c>
       <c r="F47" t="n">
-        <v>4.39</v>
+        <v>9.24</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.158995815899599</v>
+        <v>1.31578947368422</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.14942528735632</v>
+        <v>20.746887966805</v>
       </c>
       <c r="I47" t="n">
-        <v>3.44</v>
+        <v>5.82</v>
       </c>
       <c r="J47" t="n">
-        <v>1.77514792899409</v>
+        <v>-4.59016393442622</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2006-11</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>25.6024096385542</v>
+        <v>12.7131782945736</v>
       </c>
       <c r="C48" t="n">
-        <v>4.17</v>
+        <v>7.27</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.477326968973756</v>
+        <v>1.536312849162</v>
       </c>
       <c r="E48" t="n">
-        <v>17.9775280898876</v>
+        <v>3.02690582959642</v>
       </c>
       <c r="F48" t="n">
-        <v>4.2</v>
+        <v>9.19</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.32801822323461</v>
+        <v>-0.541125541125552</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.3121387283237</v>
+        <v>21.2631578947368</v>
       </c>
       <c r="I48" t="n">
-        <v>3.38</v>
+        <v>5.76</v>
       </c>
       <c r="J48" t="n">
-        <v>-1.74418604651163</v>
+        <v>-1.03092783505156</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2006-12</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>17.4556213017752</v>
+        <v>15.210843373494</v>
       </c>
       <c r="C49" t="n">
-        <v>3.97</v>
+        <v>7.65</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.79616306954436</v>
+        <v>5.22696011004126</v>
       </c>
       <c r="E49" t="n">
-        <v>16.7123287671233</v>
+        <v>6.64335664335664</v>
       </c>
       <c r="F49" t="n">
-        <v>4.26</v>
+        <v>9.15</v>
       </c>
       <c r="G49" t="n">
-        <v>1.42857142857142</v>
+        <v>-0.43525571273122</v>
       </c>
       <c r="H49" t="n">
-        <v>1.16959064327486</v>
+        <v>19.8731501057082</v>
       </c>
       <c r="I49" t="n">
-        <v>3.46</v>
+        <v>5.67</v>
       </c>
       <c r="J49" t="n">
-        <v>2.36686390532546</v>
+        <v>-1.5625</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2007-01</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>9.51086956521738</v>
+        <v>10.6463878326996</v>
       </c>
       <c r="C50" t="n">
-        <v>4.03</v>
+        <v>8.73</v>
       </c>
       <c r="D50" t="n">
-        <v>1.51133501259446</v>
+        <v>-1.24434389140271</v>
       </c>
       <c r="E50" t="n">
-        <v>7.08860759493672</v>
+        <v>14.6285714285714</v>
       </c>
       <c r="F50" t="n">
-        <v>4.23</v>
+        <v>10.03</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.704225352112658</v>
+        <v>-4.47619047619048</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.840336134453779</v>
+        <v>47.0703125</v>
       </c>
       <c r="I50" t="n">
-        <v>3.54</v>
+        <v>7.53</v>
       </c>
       <c r="J50" t="n">
-        <v>2.3121387283237</v>
+        <v>-8.05860805860806</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2007-02</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>13.0666666666667</v>
+        <v>16.8067226890756</v>
       </c>
       <c r="C51" t="n">
-        <v>4.24</v>
+        <v>8.34</v>
       </c>
       <c r="D51" t="n">
-        <v>5.21091811414391</v>
+        <v>-4.46735395189005</v>
       </c>
       <c r="E51" t="n">
-        <v>7.6167076167076</v>
+        <v>16.2037037037037</v>
       </c>
       <c r="F51" t="n">
-        <v>4.38</v>
+        <v>10.04</v>
       </c>
       <c r="G51" t="n">
-        <v>3.54609929078013</v>
+        <v>0.099700897308068</v>
       </c>
       <c r="H51" t="n">
-        <v>8.93854748603351</v>
+        <v>36.3636363636364</v>
       </c>
       <c r="I51" t="n">
-        <v>3.9</v>
+        <v>6.9</v>
       </c>
       <c r="J51" t="n">
-        <v>10.1694915254237</v>
+        <v>-8.366533864541839</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2007-03</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>11.5183246073298</v>
+        <v>21.43906020558</v>
       </c>
       <c r="C52" t="n">
-        <v>4.26</v>
+        <v>8.27</v>
       </c>
       <c r="D52" t="n">
-        <v>0.471698113207538</v>
+        <v>-0.839328537170275</v>
       </c>
       <c r="E52" t="n">
-        <v>5.01193317422435</v>
+        <v>17.9633867276888</v>
       </c>
       <c r="F52" t="n">
-        <v>4.4</v>
+        <v>10.31</v>
       </c>
       <c r="G52" t="n">
-        <v>0.45662100456623</v>
+        <v>2.68924302788847</v>
       </c>
       <c r="H52" t="n">
-        <v>6.97050938337802</v>
+        <v>24.2537313432836</v>
       </c>
       <c r="I52" t="n">
-        <v>3.99</v>
+        <v>6.66</v>
       </c>
       <c r="J52" t="n">
-        <v>2.30769230769232</v>
+        <v>-3.47826086956522</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2007-04</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.40963855421685</v>
+        <v>7.36196319018406</v>
       </c>
       <c r="C53" t="n">
-        <v>4.25</v>
+        <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.234741784037553</v>
+        <v>2.79001468428781</v>
       </c>
       <c r="E53" t="n">
-        <v>-3.91304347826087</v>
+        <v>11.0840438489647</v>
       </c>
       <c r="F53" t="n">
-        <v>4.42</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>0.454545454545439</v>
+        <v>4.34782608695652</v>
       </c>
       <c r="H53" t="n">
-        <v>-6.81818181818183</v>
+        <v>24.4813278008299</v>
       </c>
       <c r="I53" t="n">
-        <v>3.69</v>
+        <v>6</v>
       </c>
       <c r="J53" t="n">
-        <v>-7.51879699248121</v>
+        <v>11.9402985074627</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2007-05</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-6.78733031674209</v>
+        <v>3.35766423357664</v>
       </c>
       <c r="C54" t="n">
-        <v>4.12</v>
+        <v>7.08</v>
       </c>
       <c r="D54" t="n">
-        <v>-3.05882352941175</v>
+        <v>1.14285714285714</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.0093808630394</v>
+        <v>9.68899521531101</v>
       </c>
       <c r="F54" t="n">
-        <v>4.53</v>
+        <v>9.17</v>
       </c>
       <c r="G54" t="n">
-        <v>2.48868778280544</v>
+        <v>0.548245614035096</v>
       </c>
       <c r="H54" t="n">
-        <v>-13.6919315403423</v>
+        <v>21.9230769230769</v>
       </c>
       <c r="I54" t="n">
-        <v>3.53</v>
+        <v>6.34</v>
       </c>
       <c r="J54" t="n">
-        <v>-4.33604336043361</v>
+        <v>5.66666666666666</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2007-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-8.03571428571429</v>
+        <v>3.28571428571429</v>
       </c>
       <c r="C55" t="n">
-        <v>4.12</v>
+        <v>7.23</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>2.11864406779661</v>
       </c>
       <c r="E55" t="n">
-        <v>-17.8200692041523</v>
+        <v>11.1644657863145</v>
       </c>
       <c r="F55" t="n">
-        <v>4.75</v>
+        <v>9.26</v>
       </c>
       <c r="G55" t="n">
-        <v>4.85651214128036</v>
+        <v>0.9814612868047869</v>
       </c>
       <c r="H55" t="n">
-        <v>-19.8979591836735</v>
+        <v>18.8539741219963</v>
       </c>
       <c r="I55" t="n">
-        <v>3.14</v>
+        <v>6.43</v>
       </c>
       <c r="J55" t="n">
-        <v>-11.0481586402266</v>
+        <v>1.41955835962145</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2007-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-8.108108108108111</v>
+        <v>8.298171589310829</v>
       </c>
       <c r="C56" t="n">
-        <v>4.08</v>
+        <v>7.7</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.970873786407765</v>
+        <v>6.50069156293223</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.1880341880342</v>
+        <v>14.405762304922</v>
       </c>
       <c r="F56" t="n">
-        <v>5.02</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>5.68421052631578</v>
+        <v>2.91576673866089</v>
       </c>
       <c r="H56" t="n">
-        <v>-15.5807365439094</v>
+        <v>18.7826086956522</v>
       </c>
       <c r="I56" t="n">
-        <v>2.98</v>
+        <v>6.83</v>
       </c>
       <c r="J56" t="n">
-        <v>-5.09554140127389</v>
+        <v>6.22083981337479</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4.35779816513759</v>
+        <v>12.0331950207469</v>
       </c>
       <c r="C57" t="n">
-        <v>4.55</v>
+        <v>8.1</v>
       </c>
       <c r="D57" t="n">
-        <v>11.5196078431373</v>
+        <v>5.1948051948052</v>
       </c>
       <c r="E57" t="n">
-        <v>-6.06060606060606</v>
+        <v>18.6127167630058</v>
       </c>
       <c r="F57" t="n">
-        <v>4.96</v>
+        <v>10.26</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.19521912350596</v>
+        <v>7.66002098635887</v>
       </c>
       <c r="H57" t="n">
-        <v>-7.91788856304986</v>
+        <v>18.6119873817035</v>
       </c>
       <c r="I57" t="n">
-        <v>3.14</v>
+        <v>7.52</v>
       </c>
       <c r="J57" t="n">
-        <v>5.36912751677853</v>
+        <v>10.1024890190337</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2007-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.45662100456623</v>
+        <v>16.9467787114846</v>
       </c>
       <c r="C58" t="n">
-        <v>4.4</v>
+        <v>8.35</v>
       </c>
       <c r="D58" t="n">
-        <v>-3.29670329670328</v>
+        <v>3.08641975308642</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.418410041841014</v>
+        <v>19.8464912280702</v>
       </c>
       <c r="F58" t="n">
-        <v>4.76</v>
+        <v>10.93</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.03225806451614</v>
+        <v>6.53021442495128</v>
       </c>
       <c r="H58" t="n">
-        <v>-2.07100591715977</v>
+        <v>20.327868852459</v>
       </c>
       <c r="I58" t="n">
-        <v>3.31</v>
+        <v>7.34</v>
       </c>
       <c r="J58" t="n">
-        <v>5.41401273885349</v>
+        <v>-2.3936170212766</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2007-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3.10262529832934</v>
+        <v>17.7374301675978</v>
       </c>
       <c r="C59" t="n">
-        <v>4.32</v>
+        <v>8.43</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.81818181818181</v>
+        <v>0.958083832335333</v>
       </c>
       <c r="E59" t="n">
-        <v>5.23917995444192</v>
+        <v>21.6450216450216</v>
       </c>
       <c r="F59" t="n">
-        <v>4.62</v>
+        <v>11.24</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.94117647058823</v>
+        <v>2.83623055809699</v>
       </c>
       <c r="H59" t="n">
-        <v>-1.45348837209302</v>
+        <v>24.0549828178694</v>
       </c>
       <c r="I59" t="n">
-        <v>3.39</v>
+        <v>7.22</v>
       </c>
       <c r="J59" t="n">
-        <v>2.41691842900302</v>
+        <v>-1.63487738419619</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2007-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.959232613908867</v>
+        <v>19.8074277854195</v>
       </c>
       <c r="C60" t="n">
-        <v>4.21</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>-2.5462962962963</v>
+        <v>3.32147093712931</v>
       </c>
       <c r="E60" t="n">
-        <v>11.6666666666667</v>
+        <v>20.2393906420022</v>
       </c>
       <c r="F60" t="n">
-        <v>4.69</v>
+        <v>11.05</v>
       </c>
       <c r="G60" t="n">
-        <v>1.51515151515152</v>
+        <v>-1.69039145907473</v>
       </c>
       <c r="H60" t="n">
-        <v>2.07100591715977</v>
+        <v>37.6736111111111</v>
       </c>
       <c r="I60" t="n">
-        <v>3.45</v>
+        <v>7.93</v>
       </c>
       <c r="J60" t="n">
-        <v>1.76991150442478</v>
+        <v>9.83379501385042</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2007-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>15.5555555555555</v>
       </c>
       <c r="C61" t="n">
-        <v>3.97</v>
+        <v>8.84</v>
       </c>
       <c r="D61" t="n">
-        <v>-5.70071258907363</v>
+        <v>1.49253731343282</v>
       </c>
       <c r="E61" t="n">
-        <v>12.4413145539906</v>
+        <v>14.7540983606557</v>
       </c>
       <c r="F61" t="n">
-        <v>4.79</v>
+        <v>10.5</v>
       </c>
       <c r="G61" t="n">
-        <v>2.1321961620469</v>
+        <v>-4.97737556561087</v>
       </c>
       <c r="H61" t="n">
-        <v>3.75722543352602</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="I61" t="n">
-        <v>3.59</v>
+        <v>8.19</v>
       </c>
       <c r="J61" t="n">
-        <v>4.05797101449275</v>
+        <v>3.27868852459017</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2008-01</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.744416873449111</v>
+        <v>5.15463917525771</v>
       </c>
       <c r="C62" t="n">
-        <v>4.06</v>
+        <v>9.18</v>
       </c>
       <c r="D62" t="n">
-        <v>2.26700251889167</v>
+        <v>-0.541711809317448</v>
       </c>
       <c r="E62" t="n">
-        <v>19.1489361702128</v>
+        <v>-4.58624127617148</v>
       </c>
       <c r="F62" t="n">
-        <v>5.04</v>
+        <v>9.57</v>
       </c>
       <c r="G62" t="n">
-        <v>5.21920668058455</v>
+        <v>-5.43478260869564</v>
       </c>
       <c r="H62" t="n">
-        <v>9.039548022598879</v>
+        <v>-34.1301460823373</v>
       </c>
       <c r="I62" t="n">
-        <v>3.86</v>
+        <v>4.96</v>
       </c>
       <c r="J62" t="n">
-        <v>7.52089136490251</v>
+        <v>-7.63500931098696</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2008-02</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.17924528301887</v>
+        <v>8.273381294964031</v>
       </c>
       <c r="C63" t="n">
-        <v>4.29</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>5.66502463054188</v>
+        <v>-1.63398692810458</v>
       </c>
       <c r="E63" t="n">
-        <v>20.3196347031963</v>
+        <v>-6.07569721115537</v>
       </c>
       <c r="F63" t="n">
-        <v>5.27</v>
+        <v>9.43</v>
       </c>
       <c r="G63" t="n">
-        <v>4.56349206349205</v>
+        <v>-1.46290491118079</v>
       </c>
       <c r="H63" t="n">
-        <v>6.15384615384616</v>
+        <v>-29.5652173913043</v>
       </c>
       <c r="I63" t="n">
-        <v>4.14</v>
+        <v>4.86</v>
       </c>
       <c r="J63" t="n">
-        <v>7.25388601036269</v>
+        <v>-2.01612903225806</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2008-03</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.3474178403756</v>
+        <v>4.11124546553809</v>
       </c>
       <c r="C64" t="n">
-        <v>4.36</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>1.63170163170163</v>
+        <v>-4.65116279069767</v>
       </c>
       <c r="E64" t="n">
-        <v>19.3181818181818</v>
+        <v>-8.05043646944713</v>
       </c>
       <c r="F64" t="n">
-        <v>5.25</v>
+        <v>9.48</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.379506641366206</v>
+        <v>0.530222693531286</v>
       </c>
       <c r="H64" t="n">
-        <v>2.00501253132832</v>
+        <v>-27.6276276276276</v>
       </c>
       <c r="I64" t="n">
-        <v>4.07</v>
+        <v>4.82</v>
       </c>
       <c r="J64" t="n">
-        <v>-1.69082125603863</v>
+        <v>-0.823045267489704</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2008-04</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.76470588235294</v>
+        <v>18.7142857142857</v>
       </c>
       <c r="C65" t="n">
-        <v>4.41</v>
+        <v>8.31</v>
       </c>
       <c r="D65" t="n">
-        <v>1.14678899082567</v>
+        <v>0.483675937122129</v>
       </c>
       <c r="E65" t="n">
-        <v>22.8506787330317</v>
+        <v>15.2412280701755</v>
       </c>
       <c r="F65" t="n">
-        <v>5.43</v>
+        <v>10.51</v>
       </c>
       <c r="G65" t="n">
-        <v>3.42857142857143</v>
+        <v>1.93986420950534</v>
       </c>
       <c r="H65" t="n">
-        <v>15.9891598915989</v>
+        <v>9.33333333333333</v>
       </c>
       <c r="I65" t="n">
-        <v>4.28</v>
+        <v>6.56</v>
       </c>
       <c r="J65" t="n">
-        <v>5.15970515970517</v>
+        <v>-1.50150150150151</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2008-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9.22330097087378</v>
+        <v>25</v>
       </c>
       <c r="C66" t="n">
-        <v>4.5</v>
+        <v>8.85</v>
       </c>
       <c r="D66" t="n">
-        <v>2.04081632653062</v>
+        <v>6.49819494584835</v>
       </c>
       <c r="E66" t="n">
-        <v>21.1920529801324</v>
+        <v>20.0654307524537</v>
       </c>
       <c r="F66" t="n">
-        <v>5.49</v>
+        <v>11.01</v>
       </c>
       <c r="G66" t="n">
-        <v>1.10497237569062</v>
+        <v>4.75737392959086</v>
       </c>
       <c r="H66" t="n">
-        <v>18.6968838526912</v>
+        <v>13.4069400630915</v>
       </c>
       <c r="I66" t="n">
-        <v>4.19</v>
+        <v>7.19</v>
       </c>
       <c r="J66" t="n">
-        <v>-2.10280373831775</v>
+        <v>9.603658536585391</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2008-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>11.1650485436893</v>
+        <v>21.5767634854772</v>
       </c>
       <c r="C67" t="n">
-        <v>4.58</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>1.77777777777779</v>
+        <v>-0.677966101694921</v>
       </c>
       <c r="E67" t="n">
-        <v>20.6315789473684</v>
+        <v>16.8466522678186</v>
       </c>
       <c r="F67" t="n">
-        <v>5.73</v>
+        <v>10.82</v>
       </c>
       <c r="G67" t="n">
-        <v>4.37158469945356</v>
+        <v>-1.72570390554041</v>
       </c>
       <c r="H67" t="n">
-        <v>27.7070063694267</v>
+        <v>2.1772939346812</v>
       </c>
       <c r="I67" t="n">
-        <v>4.01</v>
+        <v>6.57</v>
       </c>
       <c r="J67" t="n">
-        <v>-4.29594272076373</v>
+        <v>-8.623087621696801</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2008-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>13.7254901960784</v>
+        <v>14.8051948051948</v>
       </c>
       <c r="C68" t="n">
-        <v>4.64</v>
+        <v>8.84</v>
       </c>
       <c r="D68" t="n">
-        <v>1.31004366812226</v>
+        <v>0.5688282138794279</v>
       </c>
       <c r="E68" t="n">
-        <v>15.5378486055777</v>
+        <v>13.4312696747114</v>
       </c>
       <c r="F68" t="n">
-        <v>5.8</v>
+        <v>10.81</v>
       </c>
       <c r="G68" t="n">
-        <v>1.22164048865618</v>
+        <v>-0.09242144177449101</v>
       </c>
       <c r="H68" t="n">
-        <v>26.1744966442953</v>
+        <v>-9.663250366032219</v>
       </c>
       <c r="I68" t="n">
-        <v>3.76</v>
+        <v>6.17</v>
       </c>
       <c r="J68" t="n">
-        <v>-6.23441396508728</v>
+        <v>-6.08828006088279</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2008-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1.75824175824177</v>
+        <v>6.79012345679013</v>
       </c>
       <c r="C69" t="n">
-        <v>4.47</v>
+        <v>8.65</v>
       </c>
       <c r="D69" t="n">
-        <v>-3.66379310344827</v>
+        <v>-2.14932126696831</v>
       </c>
       <c r="E69" t="n">
-        <v>12.7016129032258</v>
+        <v>4.87329434697857</v>
       </c>
       <c r="F69" t="n">
-        <v>5.59</v>
+        <v>10.76</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.62068965517241</v>
+        <v>-0.462534690101762</v>
       </c>
       <c r="H69" t="n">
-        <v>22.6114649681529</v>
+        <v>-17.6861702127659</v>
       </c>
       <c r="I69" t="n">
-        <v>3.85</v>
+        <v>6.19</v>
       </c>
       <c r="J69" t="n">
-        <v>2.39361702127661</v>
+        <v>0.32414910858995</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-1.13636363636365</v>
+        <v>2.75449101796408</v>
       </c>
       <c r="C70" t="n">
-        <v>4.35</v>
+        <v>8.58</v>
       </c>
       <c r="D70" t="n">
-        <v>-2.68456375838927</v>
+        <v>-0.8092485549132959</v>
       </c>
       <c r="E70" t="n">
-        <v>13.655462184874</v>
+        <v>-1.18938700823421</v>
       </c>
       <c r="F70" t="n">
-        <v>5.41</v>
+        <v>10.8</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.22003577817532</v>
+        <v>0.371747211895922</v>
       </c>
       <c r="H70" t="n">
-        <v>21.4501510574018</v>
+        <v>-20.5722070844687</v>
       </c>
       <c r="I70" t="n">
-        <v>4.02</v>
+        <v>5.83</v>
       </c>
       <c r="J70" t="n">
-        <v>4.41558441558441</v>
+        <v>-5.81583198707594</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2008-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.694444444444414</v>
+        <v>1.8979833926453</v>
       </c>
       <c r="C71" t="n">
-        <v>4.35</v>
+        <v>8.59</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>0.116550116550115</v>
       </c>
       <c r="E71" t="n">
-        <v>12.7705627705628</v>
+        <v>-3.73665480427047</v>
       </c>
       <c r="F71" t="n">
-        <v>5.21</v>
+        <v>10.82</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.69685767097967</v>
+        <v>0.185185185185176</v>
       </c>
       <c r="H71" t="n">
-        <v>17.1091445427729</v>
+        <v>-23.2686980609418</v>
       </c>
       <c r="I71" t="n">
-        <v>3.97</v>
+        <v>5.54</v>
       </c>
       <c r="J71" t="n">
-        <v>-1.24378109452735</v>
+        <v>-4.97427101200685</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2008-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.90023752969122</v>
+        <v>-1.03329506314583</v>
       </c>
       <c r="C72" t="n">
-        <v>4.29</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.37931034482757</v>
+        <v>0.349243306169967</v>
       </c>
       <c r="E72" t="n">
-        <v>4.4776119402985</v>
+        <v>-4.16289592760182</v>
       </c>
       <c r="F72" t="n">
-        <v>4.9</v>
+        <v>10.59</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.95009596928982</v>
+        <v>-2.12569316081331</v>
       </c>
       <c r="H72" t="n">
-        <v>19.1304347826087</v>
+        <v>-31.1475409836066</v>
       </c>
       <c r="I72" t="n">
-        <v>4.11</v>
+        <v>5.46</v>
       </c>
       <c r="J72" t="n">
-        <v>3.5264483627204</v>
+        <v>-1.44404332129963</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2008-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-1.25944584382871</v>
+        <v>4.41176470588236</v>
       </c>
       <c r="C73" t="n">
-        <v>3.92</v>
+        <v>9.23</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.62470862470863</v>
+        <v>7.07656612529004</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.208768267223377</v>
+        <v>-3.61904761904762</v>
       </c>
       <c r="F73" t="n">
-        <v>4.78</v>
+        <v>10.12</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.44897959183675</v>
+        <v>-4.438149197356</v>
       </c>
       <c r="H73" t="n">
-        <v>10.8635097493036</v>
+        <v>-34.4322344322344</v>
       </c>
       <c r="I73" t="n">
-        <v>3.98</v>
+        <v>5.37</v>
       </c>
       <c r="J73" t="n">
-        <v>-3.16301703163018</v>
+        <v>-1.64835164835165</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2009-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-5.66502463054186</v>
+        <v>1.63398692810458</v>
       </c>
       <c r="C74" t="n">
-        <v>3.83</v>
+        <v>9.33</v>
       </c>
       <c r="D74" t="n">
-        <v>-2.29591836734694</v>
+        <v>4.24581005586593</v>
       </c>
       <c r="E74" t="n">
-        <v>-3.76984126984128</v>
+        <v>-6.89655172413794</v>
       </c>
       <c r="F74" t="n">
-        <v>4.85</v>
+        <v>8.91</v>
       </c>
       <c r="G74" t="n">
-        <v>1.46443514644349</v>
+        <v>-3.98706896551724</v>
       </c>
       <c r="H74" t="n">
-        <v>4.14507772020724</v>
+        <v>14.7177419354839</v>
       </c>
       <c r="I74" t="n">
-        <v>4.02</v>
+        <v>5.69</v>
       </c>
       <c r="J74" t="n">
-        <v>1.00502512562812</v>
+        <v>-10.8150470219436</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-10.955710955711</v>
+        <v>3.32225913621262</v>
       </c>
       <c r="C75" t="n">
-        <v>3.82</v>
+        <v>9.33</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.261096605744129</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.9696394686907</v>
+        <v>-7.74125132555675</v>
       </c>
       <c r="F75" t="n">
-        <v>4.85</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>-2.35690235690237</v>
       </c>
       <c r="H75" t="n">
-        <v>-5.55555555555554</v>
+        <v>8.024691358024681</v>
       </c>
       <c r="I75" t="n">
-        <v>3.91</v>
+        <v>5.25</v>
       </c>
       <c r="J75" t="n">
-        <v>-2.73631840796018</v>
+        <v>-7.7328646748682</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2009-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-11.9266055045872</v>
+        <v>3.36817653890826</v>
       </c>
       <c r="C76" t="n">
-        <v>3.84</v>
+        <v>8.9</v>
       </c>
       <c r="D76" t="n">
-        <v>0.523560209424076</v>
+        <v>-4.60878885316184</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.85714285714286</v>
+        <v>-7.91139240506328</v>
       </c>
       <c r="F76" t="n">
-        <v>4.89</v>
+        <v>8.73</v>
       </c>
       <c r="G76" t="n">
-        <v>0.824742268041234</v>
+        <v>0.344827586206904</v>
       </c>
       <c r="H76" t="n">
-        <v>-2.94840294840296</v>
+        <v>4.56431535269708</v>
       </c>
       <c r="I76" t="n">
-        <v>3.95</v>
+        <v>5.04</v>
       </c>
       <c r="J76" t="n">
-        <v>1.02301790281329</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-7.02947845804989</v>
+        <v>1.44404332129963</v>
       </c>
       <c r="C77" t="n">
-        <v>4.1</v>
+        <v>8.43</v>
       </c>
       <c r="D77" t="n">
-        <v>6.77083333333333</v>
+        <v>-2.09059233449477</v>
       </c>
       <c r="E77" t="n">
-        <v>-3.13075506445672</v>
+        <v>-9.3244529019981</v>
       </c>
       <c r="F77" t="n">
-        <v>5.26</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G77" t="n">
-        <v>7.56646216768917</v>
+        <v>0.527426160337541</v>
       </c>
       <c r="H77" t="n">
-        <v>2.10280373831775</v>
+        <v>-19.359756097561</v>
       </c>
       <c r="I77" t="n">
-        <v>4.37</v>
+        <v>5.29</v>
       </c>
       <c r="J77" t="n">
-        <v>10.632911392405</v>
+        <v>9.75103734439833</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-2.44444444444444</v>
+        <v>-5.31073446327682</v>
       </c>
       <c r="C78" t="n">
-        <v>4.39</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>7.07317073170732</v>
+        <v>-0.593119810201642</v>
       </c>
       <c r="E78" t="n">
-        <v>10.2003642987249</v>
+        <v>-13.3514986376022</v>
       </c>
       <c r="F78" t="n">
-        <v>6.05</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="G78" t="n">
-        <v>15.0190114068441</v>
+        <v>0.10493179433368</v>
       </c>
       <c r="H78" t="n">
-        <v>22.1957040572792</v>
+        <v>-21.8358831710709</v>
       </c>
       <c r="I78" t="n">
-        <v>5.12</v>
+        <v>5.62</v>
       </c>
       <c r="J78" t="n">
-        <v>17.162471395881</v>
+        <v>6.23818525519849</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2009-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-1.09170305676855</v>
+        <v>-9.67007963594993</v>
       </c>
       <c r="C79" t="n">
-        <v>4.53</v>
+        <v>7.94</v>
       </c>
       <c r="D79" t="n">
-        <v>3.18906605922552</v>
+        <v>-5.25059665871123</v>
       </c>
       <c r="E79" t="n">
-        <v>19.7207678883072</v>
+        <v>-14.8798521256932</v>
       </c>
       <c r="F79" t="n">
-        <v>6.86</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>13.3884297520661</v>
+        <v>-3.45911949685532</v>
       </c>
       <c r="H79" t="n">
-        <v>25.9351620947631</v>
+        <v>-14.1552511415525</v>
       </c>
       <c r="I79" t="n">
-        <v>5.05</v>
+        <v>5.64</v>
       </c>
       <c r="J79" t="n">
-        <v>-1.3671875</v>
+        <v>0.35587188612098</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-1.50862068965516</v>
+        <v>-9.049773755656121</v>
       </c>
       <c r="C80" t="n">
-        <v>4.57</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.883002207505527</v>
+        <v>1.25944584382871</v>
       </c>
       <c r="E80" t="n">
-        <v>25.5172413793103</v>
+        <v>-17.0212765957447</v>
       </c>
       <c r="F80" t="n">
-        <v>7.28</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>6.12244897959184</v>
+        <v>-2.60586319218241</v>
       </c>
       <c r="H80" t="n">
-        <v>29.7872340425532</v>
+        <v>-10.2106969205835</v>
       </c>
       <c r="I80" t="n">
-        <v>4.88</v>
+        <v>5.54</v>
       </c>
       <c r="J80" t="n">
-        <v>-3.36633663366337</v>
+        <v>-1.77304964539007</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4.69798657718121</v>
+        <v>-3.69942196531792</v>
       </c>
       <c r="C81" t="n">
-        <v>4.68</v>
+        <v>8.33</v>
       </c>
       <c r="D81" t="n">
-        <v>2.4070021881838</v>
+        <v>3.60696517412937</v>
       </c>
       <c r="E81" t="n">
-        <v>19.8568872987478</v>
+        <v>-16.1710037174721</v>
       </c>
       <c r="F81" t="n">
-        <v>6.7</v>
+        <v>9.02</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.96703296703298</v>
+        <v>0.557413600891849</v>
       </c>
       <c r="H81" t="n">
-        <v>23.1168831168831</v>
+        <v>-6.46203554119548</v>
       </c>
       <c r="I81" t="n">
-        <v>4.74</v>
+        <v>5.79</v>
       </c>
       <c r="J81" t="n">
-        <v>-2.86885245901639</v>
+        <v>4.51263537906136</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>8.045977011494269</v>
+        <v>-3.72960372960374</v>
       </c>
       <c r="C82" t="n">
-        <v>4.7</v>
+        <v>8.26</v>
       </c>
       <c r="D82" t="n">
-        <v>0.427350427350447</v>
+        <v>-0.840336134453793</v>
       </c>
       <c r="E82" t="n">
-        <v>12.1996303142329</v>
+        <v>-13.5185185185185</v>
       </c>
       <c r="F82" t="n">
-        <v>6.07</v>
+        <v>9.34</v>
       </c>
       <c r="G82" t="n">
-        <v>-9.402985074626869</v>
+        <v>3.54767184035477</v>
       </c>
       <c r="H82" t="n">
-        <v>7.71144278606965</v>
+        <v>-0.857632933104625</v>
       </c>
       <c r="I82" t="n">
-        <v>4.33</v>
+        <v>5.78</v>
       </c>
       <c r="J82" t="n">
-        <v>-8.649789029535871</v>
+        <v>-0.172711571675293</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>5.51724137931035</v>
+        <v>-3.37601862630964</v>
       </c>
       <c r="C83" t="n">
-        <v>4.59</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>-2.3404255319149</v>
+        <v>0.484261501210653</v>
       </c>
       <c r="E83" t="n">
-        <v>7.29366602687141</v>
+        <v>-12.4768946395564</v>
       </c>
       <c r="F83" t="n">
-        <v>5.59</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.90774299835256</v>
+        <v>1.39186295503212</v>
       </c>
       <c r="H83" t="n">
-        <v>2.26700251889167</v>
+        <v>1.62454873646209</v>
       </c>
       <c r="I83" t="n">
-        <v>4.06</v>
+        <v>5.63</v>
       </c>
       <c r="J83" t="n">
-        <v>-6.23556581986145</v>
+        <v>-2.59515570934256</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.699300699300707</v>
+        <v>-0.812064965197195</v>
       </c>
       <c r="C84" t="n">
-        <v>4.32</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>-5.88235294117646</v>
+        <v>3.01204819277108</v>
       </c>
       <c r="E84" t="n">
-        <v>11.6326530612245</v>
+        <v>-10.9537299338999</v>
       </c>
       <c r="F84" t="n">
-        <v>5.47</v>
+        <v>9.43</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.14669051878354</v>
+        <v>-0.422386483632536</v>
       </c>
       <c r="H84" t="n">
-        <v>-7.54257907542581</v>
+        <v>13.7362637362637</v>
       </c>
       <c r="I84" t="n">
-        <v>3.8</v>
+        <v>6.21</v>
       </c>
       <c r="J84" t="n">
-        <v>-6.4039408866995</v>
+        <v>10.3019538188277</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7.39795918367348</v>
+        <v>-3.03358613217769</v>
       </c>
       <c r="C85" t="n">
-        <v>4.21</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>-2.5462962962963</v>
+        <v>4.67836257309939</v>
       </c>
       <c r="E85" t="n">
-        <v>14.8535564853556</v>
+        <v>-8.300395256917</v>
       </c>
       <c r="F85" t="n">
-        <v>5.49</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>0.365630712979907</v>
+        <v>-1.59066808059384</v>
       </c>
       <c r="H85" t="n">
-        <v>-8.291457286432159</v>
+        <v>18.8081936685289</v>
       </c>
       <c r="I85" t="n">
-        <v>3.65</v>
+        <v>6.38</v>
       </c>
       <c r="J85" t="n">
-        <v>-3.94736842105263</v>
+        <v>2.73752012882447</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2010-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>9.13838120104438</v>
+        <v>20.042872454448</v>
       </c>
       <c r="C86" t="n">
-        <v>4.18</v>
+        <v>11.2</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.712589073634206</v>
+        <v>0.628930817610041</v>
       </c>
       <c r="E86" t="n">
-        <v>17.9381443298969</v>
+        <v>2.80583613916947</v>
       </c>
       <c r="F86" t="n">
-        <v>5.72</v>
+        <v>9.16</v>
       </c>
       <c r="G86" t="n">
-        <v>4.18943533697632</v>
+        <v>-3.06878306878306</v>
       </c>
       <c r="H86" t="n">
-        <v>-5.72139303482587</v>
+        <v>-15.4657293497364</v>
       </c>
       <c r="I86" t="n">
-        <v>3.79</v>
+        <v>4.81</v>
       </c>
       <c r="J86" t="n">
-        <v>3.83561643835617</v>
+        <v>-8.555133079847909</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>19.6335078534032</v>
+        <v>14.4694533762058</v>
       </c>
       <c r="C87" t="n">
-        <v>4.57</v>
+        <v>10.68</v>
       </c>
       <c r="D87" t="n">
-        <v>9.33014354066988</v>
+        <v>-4.64285714285714</v>
       </c>
       <c r="E87" t="n">
-        <v>25.1546391752578</v>
+        <v>3.67816091954023</v>
       </c>
       <c r="F87" t="n">
-        <v>6.07</v>
+        <v>9.02</v>
       </c>
       <c r="G87" t="n">
-        <v>6.11888111888112</v>
+        <v>-1.52838427947599</v>
       </c>
       <c r="H87" t="n">
-        <v>7.67263427109974</v>
+        <v>-5.33333333333333</v>
       </c>
       <c r="I87" t="n">
-        <v>4.21</v>
+        <v>4.97</v>
       </c>
       <c r="J87" t="n">
-        <v>11.0817941952507</v>
+        <v>3.32640332640332</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>22.3958333333333</v>
+        <v>14.4943820224719</v>
       </c>
       <c r="C88" t="n">
-        <v>4.7</v>
+        <v>10.19</v>
       </c>
       <c r="D88" t="n">
-        <v>2.84463894967178</v>
+        <v>-4.58801498127342</v>
       </c>
       <c r="E88" t="n">
-        <v>24.9488752556237</v>
+        <v>4.23825887743412</v>
       </c>
       <c r="F88" t="n">
-        <v>6.11</v>
+        <v>9.1</v>
       </c>
       <c r="G88" t="n">
-        <v>0.65897858319606</v>
+        <v>0.886917960088681</v>
       </c>
       <c r="H88" t="n">
-        <v>9.113924050632891</v>
+        <v>7.93650793650795</v>
       </c>
       <c r="I88" t="n">
-        <v>4.31</v>
+        <v>5.44</v>
       </c>
       <c r="J88" t="n">
-        <v>2.375296912114</v>
+        <v>9.45674044265594</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>18.2926829268293</v>
+        <v>8.54092526690393</v>
       </c>
       <c r="C89" t="n">
-        <v>4.85</v>
+        <v>9.15</v>
       </c>
       <c r="D89" t="n">
-        <v>3.19148936170212</v>
+        <v>2.80898876404494</v>
       </c>
       <c r="E89" t="n">
-        <v>19.3916349809886</v>
+        <v>-4.72193074501574</v>
       </c>
       <c r="F89" t="n">
-        <v>6.28</v>
+        <v>9.08</v>
       </c>
       <c r="G89" t="n">
-        <v>2.78232405891981</v>
+        <v>4.00916380297822</v>
       </c>
       <c r="H89" t="n">
-        <v>12.3569794050343</v>
+        <v>-3.02457466918715</v>
       </c>
       <c r="I89" t="n">
-        <v>4.91</v>
+        <v>5.13</v>
       </c>
       <c r="J89" t="n">
-        <v>13.9211136890951</v>
+        <v>1.78571428571428</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>15.0341685649203</v>
+        <v>9.54653937947492</v>
       </c>
       <c r="C90" t="n">
-        <v>5.05</v>
+        <v>9.18</v>
       </c>
       <c r="D90" t="n">
-        <v>4.1237113402062</v>
+        <v>0.327868852459005</v>
       </c>
       <c r="E90" t="n">
-        <v>7.93388429752066</v>
+        <v>-6.07966457023059</v>
       </c>
       <c r="F90" t="n">
-        <v>6.53</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>3.98089171974523</v>
+        <v>-1.32158590308369</v>
       </c>
       <c r="H90" t="n">
-        <v>1.5625</v>
+        <v>-9.252669039145911</v>
       </c>
       <c r="I90" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J90" t="n">
-        <v>5.90631364562117</v>
+        <v>-0.584795321637429</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>14.5695364238411</v>
+        <v>16.624685138539</v>
       </c>
       <c r="C91" t="n">
-        <v>5.19</v>
+        <v>9.26</v>
       </c>
       <c r="D91" t="n">
-        <v>2.77227722772278</v>
+        <v>0.871459694989113</v>
       </c>
       <c r="E91" t="n">
-        <v>1.60349854227404</v>
+        <v>-1.73724212812161</v>
       </c>
       <c r="F91" t="n">
-        <v>6.97</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>6.73813169984685</v>
+        <v>1.00446428571428</v>
       </c>
       <c r="H91" t="n">
-        <v>4.75247524752476</v>
+        <v>-5.1418439716312</v>
       </c>
       <c r="I91" t="n">
-        <v>5.29</v>
+        <v>5.35</v>
       </c>
       <c r="J91" t="n">
-        <v>1.73076923076923</v>
+        <v>4.90196078431373</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>12.472647702407</v>
+        <v>25.2487562189055</v>
       </c>
       <c r="C92" t="n">
-        <v>5.14</v>
+        <v>10.07</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.963391136801548</v>
+        <v>8.74730021598273</v>
       </c>
       <c r="E92" t="n">
-        <v>-1.37362637362638</v>
+        <v>3.1215161649944</v>
       </c>
       <c r="F92" t="n">
-        <v>7.18</v>
+        <v>9.25</v>
       </c>
       <c r="G92" t="n">
-        <v>3.01291248206599</v>
+        <v>2.20994475138122</v>
       </c>
       <c r="H92" t="n">
-        <v>4.09836065573769</v>
+        <v>5.5956678700361</v>
       </c>
       <c r="I92" t="n">
-        <v>5.08</v>
+        <v>5.85</v>
       </c>
       <c r="J92" t="n">
-        <v>-3.96975425330814</v>
+        <v>9.345794392523359</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>10.6837606837607</v>
+        <v>26.4105642256903</v>
       </c>
       <c r="C93" t="n">
-        <v>5.18</v>
+        <v>10.53</v>
       </c>
       <c r="D93" t="n">
-        <v>0.778210116731515</v>
+        <v>4.56802383316781</v>
       </c>
       <c r="E93" t="n">
-        <v>8.805970149253721</v>
+        <v>3.99113082039912</v>
       </c>
       <c r="F93" t="n">
-        <v>7.29</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>1.53203342618384</v>
+        <v>1.40540540540542</v>
       </c>
       <c r="H93" t="n">
-        <v>5.48523206751055</v>
+        <v>8.4628670120898</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>6.28</v>
       </c>
       <c r="J93" t="n">
-        <v>-1.5748031496063</v>
+        <v>7.35042735042737</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>12.3404255319149</v>
+        <v>25.0605326876513</v>
       </c>
       <c r="C94" t="n">
-        <v>5.28</v>
+        <v>10.33</v>
       </c>
       <c r="D94" t="n">
-        <v>1.93050193050195</v>
+        <v>-1.89933523266856</v>
       </c>
       <c r="E94" t="n">
-        <v>15.4859967051071</v>
+        <v>2.35546038543899</v>
       </c>
       <c r="F94" t="n">
-        <v>7.01</v>
+        <v>9.56</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.84087791495199</v>
+        <v>1.91897654584221</v>
       </c>
       <c r="H94" t="n">
-        <v>13.3949191685912</v>
+        <v>3.2871972318339</v>
       </c>
       <c r="I94" t="n">
-        <v>4.91</v>
+        <v>5.97</v>
       </c>
       <c r="J94" t="n">
-        <v>-1.8</v>
+        <v>-4.93630573248409</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>20.6971677559913</v>
+        <v>27.2289156626506</v>
       </c>
       <c r="C95" t="n">
-        <v>5.54</v>
+        <v>10.56</v>
       </c>
       <c r="D95" t="n">
-        <v>4.92424242424244</v>
+        <v>2.22652468538239</v>
       </c>
       <c r="E95" t="n">
-        <v>22.0035778175313</v>
+        <v>1.90073917634635</v>
       </c>
       <c r="F95" t="n">
-        <v>6.82</v>
+        <v>9.65</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.71041369472181</v>
+        <v>0.941422594142253</v>
       </c>
       <c r="H95" t="n">
-        <v>13.0541871921182</v>
+        <v>0.888099467140322</v>
       </c>
       <c r="I95" t="n">
-        <v>4.59</v>
+        <v>5.68</v>
       </c>
       <c r="J95" t="n">
-        <v>-6.51731160896131</v>
+        <v>-4.85762144053602</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>32.1759259259259</v>
+        <v>27.4853801169591</v>
       </c>
       <c r="C96" t="n">
-        <v>5.71</v>
+        <v>10.9</v>
       </c>
       <c r="D96" t="n">
-        <v>3.06859205776173</v>
+        <v>3.21969696969697</v>
       </c>
       <c r="E96" t="n">
-        <v>31.2614259597806</v>
+        <v>2.01484623541887</v>
       </c>
       <c r="F96" t="n">
-        <v>7.18</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>5.27859237536657</v>
+        <v>-0.310880829015559</v>
       </c>
       <c r="H96" t="n">
-        <v>21.8421052631579</v>
+        <v>-12.3993558776167</v>
       </c>
       <c r="I96" t="n">
-        <v>4.63</v>
+        <v>5.44</v>
       </c>
       <c r="J96" t="n">
-        <v>0.871459694989113</v>
+        <v>-4.22535211267603</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>34.2042755344418</v>
+        <v>24.3575418994413</v>
       </c>
       <c r="C97" t="n">
-        <v>5.65</v>
+        <v>11.13</v>
       </c>
       <c r="D97" t="n">
-        <v>-1.0507880910683</v>
+        <v>2.11009174311927</v>
       </c>
       <c r="E97" t="n">
-        <v>35.3369763205829</v>
+        <v>1.83189655172413</v>
       </c>
       <c r="F97" t="n">
-        <v>7.43</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>3.48189415041782</v>
+        <v>-1.76715176715176</v>
       </c>
       <c r="H97" t="n">
-        <v>32.8767123287671</v>
+        <v>-17.5548589341693</v>
       </c>
       <c r="I97" t="n">
-        <v>4.85</v>
+        <v>5.26</v>
       </c>
       <c r="J97" t="n">
-        <v>4.75161987041037</v>
+        <v>-3.30882352941177</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>38.755980861244</v>
+        <v>-1.96428571428571</v>
       </c>
       <c r="C98" t="n">
-        <v>5.8</v>
+        <v>10.98</v>
       </c>
       <c r="D98" t="n">
-        <v>2.65486725663715</v>
+        <v>1.66666666666666</v>
       </c>
       <c r="E98" t="n">
-        <v>40.9090909090909</v>
+        <v>8.296943231441061</v>
       </c>
       <c r="F98" t="n">
-        <v>8.06</v>
+        <v>9.92</v>
       </c>
       <c r="G98" t="n">
-        <v>8.479138627187099</v>
+        <v>-1.78217821782178</v>
       </c>
       <c r="H98" t="n">
-        <v>37.2031662269129</v>
+        <v>38.2536382536383</v>
       </c>
       <c r="I98" t="n">
-        <v>5.2</v>
+        <v>6.65</v>
       </c>
       <c r="J98" t="n">
-        <v>7.21649484536084</v>
+        <v>-0.894187779433679</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>36.7614879649891</v>
+        <v>-1.96629213483145</v>
       </c>
       <c r="C99" t="n">
-        <v>6.25</v>
+        <v>10.47</v>
       </c>
       <c r="D99" t="n">
-        <v>7.75862068965519</v>
+        <v>-4.64480874316939</v>
       </c>
       <c r="E99" t="n">
-        <v>37.5617792421746</v>
+        <v>9.423503325942351</v>
       </c>
       <c r="F99" t="n">
-        <v>8.35</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>3.59801488833746</v>
+        <v>-0.504032258064527</v>
       </c>
       <c r="H99" t="n">
-        <v>35.3919239904988</v>
+        <v>40.2414486921529</v>
       </c>
       <c r="I99" t="n">
-        <v>5.7</v>
+        <v>6.97</v>
       </c>
       <c r="J99" t="n">
-        <v>9.615384615384629</v>
+        <v>4.81203007518796</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>33.1914893617021</v>
+        <v>-0.883218842001966</v>
       </c>
       <c r="C100" t="n">
-        <v>6.26</v>
+        <v>10.1</v>
       </c>
       <c r="D100" t="n">
-        <v>0.160000000000011</v>
+        <v>-3.53390639923592</v>
       </c>
       <c r="E100" t="n">
-        <v>37.4795417348609</v>
+        <v>10</v>
       </c>
       <c r="F100" t="n">
-        <v>8.4</v>
+        <v>10.01</v>
       </c>
       <c r="G100" t="n">
-        <v>0.598802395209603</v>
+        <v>1.41843971631207</v>
       </c>
       <c r="H100" t="n">
-        <v>38.5150812064965</v>
+        <v>26.1029411764706</v>
       </c>
       <c r="I100" t="n">
-        <v>5.97</v>
+        <v>6.86</v>
       </c>
       <c r="J100" t="n">
-        <v>4.73684210526315</v>
+        <v>-1.57819225251076</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>36.4948453608247</v>
+        <v>9.6174863387978</v>
       </c>
       <c r="C101" t="n">
-        <v>6.62</v>
+        <v>10.03</v>
       </c>
       <c r="D101" t="n">
-        <v>5.75079872204473</v>
+        <v>-1.57016683022572</v>
       </c>
       <c r="E101" t="n">
-        <v>35.6687898089172</v>
+        <v>1.87224669603525</v>
       </c>
       <c r="F101" t="n">
-        <v>8.52</v>
+        <v>9.25</v>
       </c>
       <c r="G101" t="n">
-        <v>1.42857142857142</v>
+        <v>1.64835164835165</v>
       </c>
       <c r="H101" t="n">
-        <v>40.7331975560082</v>
+        <v>20.6627680311891</v>
       </c>
       <c r="I101" t="n">
-        <v>6.91</v>
+        <v>6.19</v>
       </c>
       <c r="J101" t="n">
-        <v>15.7453936348409</v>
+        <v>13.7867647058824</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>35.049504950495</v>
+        <v>10.0217864923747</v>
       </c>
       <c r="C102" t="n">
-        <v>6.82</v>
+        <v>10.1</v>
       </c>
       <c r="D102" t="n">
-        <v>3.02114803625378</v>
+        <v>0.697906281156534</v>
       </c>
       <c r="E102" t="n">
-        <v>31.8529862174579</v>
+        <v>6.24999999999997</v>
       </c>
       <c r="F102" t="n">
-        <v>8.609999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="G102" t="n">
-        <v>1.05633802816899</v>
+        <v>2.9189189189189</v>
       </c>
       <c r="H102" t="n">
-        <v>21.1538461538461</v>
+        <v>31.1764705882353</v>
       </c>
       <c r="I102" t="n">
-        <v>6.3</v>
+        <v>6.69</v>
       </c>
       <c r="J102" t="n">
-        <v>-8.827785817655579</v>
+        <v>8.077544426494359</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>32.7552986512524</v>
+        <v>6.69546436285098</v>
       </c>
       <c r="C103" t="n">
-        <v>6.89</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>1.02639296187684</v>
+        <v>-2.17821782178217</v>
       </c>
       <c r="E103" t="n">
-        <v>24.2467718794835</v>
+        <v>2.65193370165744</v>
       </c>
       <c r="F103" t="n">
-        <v>8.66</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>0.580720092915229</v>
+        <v>-2.41596638655463</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.756143667296783</v>
+        <v>19.6261682242991</v>
       </c>
       <c r="I103" t="n">
-        <v>5.25</v>
+        <v>6.4</v>
       </c>
       <c r="J103" t="n">
-        <v>-16.6666666666667</v>
+        <v>-4.33482810164425</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>39.2996108949417</v>
+        <v>-3.07845084409136</v>
       </c>
       <c r="C104" t="n">
-        <v>7.16</v>
+        <v>9.76</v>
       </c>
       <c r="D104" t="n">
-        <v>3.91872278664734</v>
+        <v>-1.21457489878544</v>
       </c>
       <c r="E104" t="n">
-        <v>20.1949860724234</v>
+        <v>-0.432432432432421</v>
       </c>
       <c r="F104" t="n">
-        <v>8.630000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.346420323325631</v>
+        <v>-0.861141011840672</v>
       </c>
       <c r="H104" t="n">
-        <v>-12.7952755905512</v>
+        <v>9.91452991452992</v>
       </c>
       <c r="I104" t="n">
-        <v>4.43</v>
+        <v>6.43</v>
       </c>
       <c r="J104" t="n">
-        <v>-15.6190476190476</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>39.1891891891892</v>
+        <v>-4.46343779677112</v>
       </c>
       <c r="C105" t="n">
-        <v>7.21</v>
+        <v>10.06</v>
       </c>
       <c r="D105" t="n">
-        <v>0.69832402234637</v>
+        <v>3.07377049180329</v>
       </c>
       <c r="E105" t="n">
-        <v>13.0315500685871</v>
+        <v>-0.852878464818758</v>
       </c>
       <c r="F105" t="n">
-        <v>8.24</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G105" t="n">
-        <v>-4.51911935110083</v>
+        <v>0.977198697068403</v>
       </c>
       <c r="H105" t="n">
-        <v>-10</v>
+        <v>-1.75159235668791</v>
       </c>
       <c r="I105" t="n">
-        <v>4.5</v>
+        <v>6.17</v>
       </c>
       <c r="J105" t="n">
-        <v>1.58013544018058</v>
+        <v>-4.04354587869362</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>44.8863636363637</v>
+        <v>-3.48499515972894</v>
       </c>
       <c r="C106" t="n">
-        <v>7.65</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>6.10263522884881</v>
+        <v>-0.894632206759439</v>
       </c>
       <c r="E106" t="n">
-        <v>14.265335235378</v>
+        <v>-2.71966527196652</v>
       </c>
       <c r="F106" t="n">
-        <v>8.01</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G106" t="n">
-        <v>-2.79126213592234</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>2.64765784114054</v>
+        <v>-1.34003350083752</v>
       </c>
       <c r="I106" t="n">
-        <v>5.04</v>
+        <v>5.89</v>
       </c>
       <c r="J106" t="n">
-        <v>12</v>
+        <v>-4.53808752025932</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>36.101083032491</v>
+        <v>-6.06060606060606</v>
       </c>
       <c r="C107" t="n">
-        <v>7.54</v>
+        <v>9.92</v>
       </c>
       <c r="D107" t="n">
-        <v>-1.43790849673204</v>
+        <v>-0.501504513540624</v>
       </c>
       <c r="E107" t="n">
-        <v>14.2228739002932</v>
+        <v>-0.518134715025909</v>
       </c>
       <c r="F107" t="n">
-        <v>7.79</v>
+        <v>9.6</v>
       </c>
       <c r="G107" t="n">
-        <v>-2.7465667915106</v>
+        <v>3.2258064516129</v>
       </c>
       <c r="H107" t="n">
-        <v>21.1328976034858</v>
+        <v>3.69718309859155</v>
       </c>
       <c r="I107" t="n">
-        <v>5.56</v>
+        <v>5.89</v>
       </c>
       <c r="J107" t="n">
-        <v>10.3174603174603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>23.9929947460595</v>
+        <v>-5.3211009174312</v>
       </c>
       <c r="C108" t="n">
-        <v>7.08</v>
+        <v>10.32</v>
       </c>
       <c r="D108" t="n">
-        <v>-6.10079575596816</v>
+        <v>4.03225806451613</v>
       </c>
       <c r="E108" t="n">
-        <v>6.54596100278553</v>
+        <v>3.22245322245323</v>
       </c>
       <c r="F108" t="n">
-        <v>7.65</v>
+        <v>9.93</v>
       </c>
       <c r="G108" t="n">
-        <v>-1.79717586649551</v>
+        <v>3.4375</v>
       </c>
       <c r="H108" t="n">
-        <v>27.2138228941685</v>
+        <v>16.5441176470588</v>
       </c>
       <c r="I108" t="n">
-        <v>5.89</v>
+        <v>6.34</v>
       </c>
       <c r="J108" t="n">
-        <v>5.93525179856115</v>
+        <v>7.64006791171477</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>16.1061946902655</v>
+        <v>-2.96495956873315</v>
       </c>
       <c r="C109" t="n">
-        <v>6.56</v>
+        <v>10.8</v>
       </c>
       <c r="D109" t="n">
-        <v>-7.34463276836159</v>
+        <v>4.65116279069768</v>
       </c>
       <c r="E109" t="n">
-        <v>6.05652759084792</v>
+        <v>6.87830687830689</v>
       </c>
       <c r="F109" t="n">
-        <v>7.88</v>
+        <v>10.1</v>
       </c>
       <c r="G109" t="n">
-        <v>3.00653594771241</v>
+        <v>1.71198388721048</v>
       </c>
       <c r="H109" t="n">
-        <v>20.8247422680412</v>
+        <v>27.5665399239544</v>
       </c>
       <c r="I109" t="n">
-        <v>5.86</v>
+        <v>6.71</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.509337860780974</v>
+        <v>5.83596214511041</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>8.965517241379329</v>
+        <v>5.64663023679417</v>
       </c>
       <c r="C110" t="n">
-        <v>6.32</v>
+        <v>11.6</v>
       </c>
       <c r="D110" t="n">
-        <v>-3.65853658536585</v>
+        <v>0.957354221061777</v>
       </c>
       <c r="E110" t="n">
-        <v>2.60545905707194</v>
+        <v>11.3911290322581</v>
       </c>
       <c r="F110" t="n">
-        <v>8.27</v>
+        <v>11.05</v>
       </c>
       <c r="G110" t="n">
-        <v>4.94923857868019</v>
+        <v>-14.2746314972847</v>
       </c>
       <c r="H110" t="n">
-        <v>16.5384615384615</v>
+        <v>-5.71428571428572</v>
       </c>
       <c r="I110" t="n">
-        <v>6.06</v>
+        <v>6.27</v>
       </c>
       <c r="J110" t="n">
-        <v>3.41296928327644</v>
+        <v>-2.33644859813084</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-3.68000000000001</v>
+        <v>6.97230181470867</v>
       </c>
       <c r="C111" t="n">
-        <v>6.02</v>
+        <v>11.2</v>
       </c>
       <c r="D111" t="n">
-        <v>-4.74683544303799</v>
+        <v>-3.44827586206897</v>
       </c>
       <c r="E111" t="n">
-        <v>-1.91616766467067</v>
+        <v>2.02634245187438</v>
       </c>
       <c r="F111" t="n">
-        <v>8.19</v>
+        <v>10.07</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.9673518742442579</v>
+        <v>-8.86877828054298</v>
       </c>
       <c r="H111" t="n">
-        <v>4.03508771929823</v>
+        <v>-14.2037302725968</v>
       </c>
       <c r="I111" t="n">
-        <v>5.93</v>
+        <v>5.98</v>
       </c>
       <c r="J111" t="n">
-        <v>-2.14521452145215</v>
+        <v>-4.62519936204146</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-5.43130990415335</v>
+        <v>7.02970297029704</v>
       </c>
       <c r="C112" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-3.48214285714285</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-1.4985014985015</v>
+      </c>
+      <c r="F112" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2.08540218470706</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-13.7026239067055</v>
+      </c>
+      <c r="I112" t="n">
         <v>5.92</v>
       </c>
-      <c r="D112" t="n">
-        <v>-1.6611295681063</v>
-      </c>
-      <c r="E112" t="n">
-        <v>-1.90476190476191</v>
-      </c>
-      <c r="F112" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.610500610500608</v>
-      </c>
-      <c r="H112" t="n">
-        <v>-1.67504187604689</v>
-      </c>
-      <c r="I112" t="n">
-        <v>5.87</v>
-      </c>
       <c r="J112" t="n">
-        <v>-1.01180438448566</v>
+        <v>-1.00334448160537</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-11.4803625377643</v>
+        <v>1.79461615154537</v>
       </c>
       <c r="C113" t="n">
-        <v>5.86</v>
+        <v>10.21</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.01351351351352</v>
+        <v>1.08910891089108</v>
       </c>
       <c r="E113" t="n">
-        <v>-2.81690140845072</v>
+        <v>12.972972972973</v>
       </c>
       <c r="F113" t="n">
-        <v>8.279999999999999</v>
+        <v>10.45</v>
       </c>
       <c r="G113" t="n">
-        <v>0.485436893203882</v>
+        <v>4.39560439560438</v>
       </c>
       <c r="H113" t="n">
-        <v>-19.3921852387844</v>
+        <v>10.9854604200323</v>
       </c>
       <c r="I113" t="n">
-        <v>5.57</v>
+        <v>6.87</v>
       </c>
       <c r="J113" t="n">
-        <v>-5.11073253833048</v>
+        <v>0.145772594752188</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-14.2228739002933</v>
+        <v>-0.297029702970292</v>
       </c>
       <c r="C114" t="n">
-        <v>5.85</v>
+        <v>10.07</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.170648464163833</v>
+        <v>-1.37120470127327</v>
       </c>
       <c r="E114" t="n">
-        <v>-3.71660859465737</v>
+        <v>12.0798319327731</v>
       </c>
       <c r="F114" t="n">
-        <v>8.289999999999999</v>
+        <v>10.67</v>
       </c>
       <c r="G114" t="n">
-        <v>0.120772946859901</v>
+        <v>2.10526315789474</v>
       </c>
       <c r="H114" t="n">
-        <v>-16.1904761904762</v>
+        <v>1.79372197309415</v>
       </c>
       <c r="I114" t="n">
-        <v>5.28</v>
+        <v>6.81</v>
       </c>
       <c r="J114" t="n">
-        <v>-5.2064631956912</v>
+        <v>-0.873362445414855</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-12.9172714078374</v>
+        <v>0.708502024291491</v>
       </c>
       <c r="C115" t="n">
-        <v>6</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>2.56410256410258</v>
+        <v>-1.19165839126119</v>
       </c>
       <c r="E115" t="n">
-        <v>2.42494226327943</v>
+        <v>16.8998923573735</v>
       </c>
       <c r="F115" t="n">
-        <v>8.869999999999999</v>
+        <v>10.86</v>
       </c>
       <c r="G115" t="n">
-        <v>6.99638118214716</v>
+        <v>1.78069353327083</v>
       </c>
       <c r="H115" t="n">
-        <v>-4.38095238095238</v>
+        <v>5.31249999999999</v>
       </c>
       <c r="I115" t="n">
-        <v>5.02</v>
+        <v>6.74</v>
       </c>
       <c r="J115" t="n">
-        <v>-4.92424242424244</v>
+        <v>-1.02790014684287</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-14.6648044692737</v>
+        <v>6.04508196721312</v>
       </c>
       <c r="C116" t="n">
-        <v>6.11</v>
+        <v>10.35</v>
       </c>
       <c r="D116" t="n">
-        <v>1.83333333333333</v>
+        <v>4.02010050251256</v>
       </c>
       <c r="E116" t="n">
-        <v>4.75086906141364</v>
+        <v>24.7557003257329</v>
       </c>
       <c r="F116" t="n">
-        <v>9.039999999999999</v>
+        <v>11.49</v>
       </c>
       <c r="G116" t="n">
-        <v>1.91657271702368</v>
+        <v>5.8011049723757</v>
       </c>
       <c r="H116" t="n">
-        <v>8.803611738149019</v>
+        <v>4.97667185069986</v>
       </c>
       <c r="I116" t="n">
-        <v>4.82</v>
+        <v>6.75</v>
       </c>
       <c r="J116" t="n">
-        <v>-3.98406374501991</v>
+        <v>0.14836795252225</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-10.5409153952843</v>
+        <v>12.2266401590457</v>
       </c>
       <c r="C117" t="n">
-        <v>6.45</v>
+        <v>11.29</v>
       </c>
       <c r="D117" t="n">
-        <v>5.56464811783961</v>
+        <v>9.08212560386472</v>
       </c>
       <c r="E117" t="n">
-        <v>8.25242718446601</v>
+        <v>45.9139784946236</v>
       </c>
       <c r="F117" t="n">
-        <v>8.92</v>
+        <v>13.57</v>
       </c>
       <c r="G117" t="n">
-        <v>-1.32743362831857</v>
+        <v>18.1026979982594</v>
       </c>
       <c r="H117" t="n">
-        <v>5.55555555555556</v>
+        <v>9.88654781199352</v>
       </c>
       <c r="I117" t="n">
-        <v>4.75</v>
+        <v>6.78</v>
       </c>
       <c r="J117" t="n">
-        <v>-1.45228215767635</v>
+        <v>0.444444444444443</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-13.202614379085</v>
+        <v>17.753259779338</v>
       </c>
       <c r="C118" t="n">
-        <v>6.64</v>
+        <v>11.74</v>
       </c>
       <c r="D118" t="n">
-        <v>2.94573643410851</v>
+        <v>3.98582816651904</v>
       </c>
       <c r="E118" t="n">
-        <v>7.11610486891385</v>
+        <v>67.5268817204301</v>
       </c>
       <c r="F118" t="n">
-        <v>8.58</v>
+        <v>15.58</v>
       </c>
       <c r="G118" t="n">
-        <v>-3.81165919282512</v>
+        <v>14.8120854826824</v>
       </c>
       <c r="H118" t="n">
-        <v>-6.15079365079364</v>
+        <v>12.5636672325976</v>
       </c>
       <c r="I118" t="n">
-        <v>4.73</v>
+        <v>6.63</v>
       </c>
       <c r="J118" t="n">
-        <v>-0.421052631578931</v>
+        <v>-2.21238938053098</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-4.90716180371354</v>
+        <v>15.9274193548387</v>
       </c>
       <c r="C119" t="n">
-        <v>7.17</v>
+        <v>11.5</v>
       </c>
       <c r="D119" t="n">
-        <v>7.98192771084338</v>
+        <v>-2.0442930153322</v>
       </c>
       <c r="E119" t="n">
-        <v>7.70218228498074</v>
+        <v>67.9166666666667</v>
       </c>
       <c r="F119" t="n">
-        <v>8.390000000000001</v>
+        <v>16.12</v>
       </c>
       <c r="G119" t="n">
-        <v>-2.21445221445221</v>
+        <v>3.46598202824133</v>
       </c>
       <c r="H119" t="n">
-        <v>-12.7697841726619</v>
+        <v>7.30050933786079</v>
       </c>
       <c r="I119" t="n">
-        <v>4.85</v>
+        <v>6.32</v>
       </c>
       <c r="J119" t="n">
-        <v>2.53699788583508</v>
+        <v>-4.67571644042232</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-2.54237288135593</v>
+        <v>10.562015503876</v>
       </c>
       <c r="C120" t="n">
-        <v>6.9</v>
+        <v>11.41</v>
       </c>
       <c r="D120" t="n">
-        <v>-3.76569037656903</v>
+        <v>-0.7826086956521719</v>
       </c>
       <c r="E120" t="n">
-        <v>6.40522875816994</v>
+        <v>56.1933534743202</v>
       </c>
       <c r="F120" t="n">
-        <v>8.140000000000001</v>
+        <v>15.51</v>
       </c>
       <c r="G120" t="n">
-        <v>-2.97973778307508</v>
+        <v>-3.78411910669976</v>
       </c>
       <c r="H120" t="n">
-        <v>-21.2224108658744</v>
+        <v>-0.15772870662461</v>
       </c>
       <c r="I120" t="n">
-        <v>4.64</v>
+        <v>6.33</v>
       </c>
       <c r="J120" t="n">
-        <v>-4.32989690721649</v>
+        <v>0.158227848101262</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-2.59146341463415</v>
+        <v>6.38888888888889</v>
       </c>
       <c r="C121" t="n">
-        <v>6.39</v>
+        <v>11.49</v>
       </c>
       <c r="D121" t="n">
-        <v>-7.39130434782609</v>
+        <v>0.701139351446088</v>
       </c>
       <c r="E121" t="n">
-        <v>2.66497461928934</v>
+        <v>27.6237623762376</v>
       </c>
       <c r="F121" t="n">
-        <v>8.09</v>
+        <v>12.89</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.614250614250622</v>
+        <v>-16.8923275306254</v>
       </c>
       <c r="H121" t="n">
-        <v>-21.6723549488055</v>
+        <v>-4.32190760059613</v>
       </c>
       <c r="I121" t="n">
-        <v>4.59</v>
+        <v>6.42</v>
       </c>
       <c r="J121" t="n">
-        <v>-1.07758620689656</v>
+        <v>1.4218009478673</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2013-01</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3.16455696202532</v>
+        <v>-1.1206896551724</v>
       </c>
       <c r="C122" t="n">
-        <v>6.52</v>
+        <v>11.47</v>
       </c>
       <c r="D122" t="n">
-        <v>2.03442879499218</v>
+        <v>2.13713268032056</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.725513905683172</v>
+        <v>-11.6742081447964</v>
       </c>
       <c r="F122" t="n">
-        <v>8.210000000000001</v>
+        <v>9.76</v>
       </c>
       <c r="G122" t="n">
-        <v>1.48331273176763</v>
+        <v>-3.07845084409136</v>
       </c>
       <c r="H122" t="n">
-        <v>-20.4620462046204</v>
+        <v>-5.74162679425837</v>
       </c>
       <c r="I122" t="n">
-        <v>4.82</v>
+        <v>5.91</v>
       </c>
       <c r="J122" t="n">
-        <v>5.01089324618738</v>
+        <v>-2.1523178807947</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>13.7873754152824</v>
+        <v>-4.46428571428571</v>
       </c>
       <c r="C123" t="n">
-        <v>6.85</v>
+        <v>10.7</v>
       </c>
       <c r="D123" t="n">
-        <v>5.06134969325154</v>
+        <v>-6.71316477768092</v>
       </c>
       <c r="E123" t="n">
-        <v>2.07570207570207</v>
+        <v>-4.07149950347568</v>
       </c>
       <c r="F123" t="n">
-        <v>8.359999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="G123" t="n">
-        <v>1.82704019488426</v>
+        <v>-1.02459016393442</v>
       </c>
       <c r="H123" t="n">
-        <v>-12.3102866779089</v>
+        <v>-2.67558528428094</v>
       </c>
       <c r="I123" t="n">
-        <v>5.2</v>
+        <v>5.82</v>
       </c>
       <c r="J123" t="n">
-        <v>7.88381742738589</v>
+        <v>-1.5228426395939</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>18.2432432432432</v>
+        <v>-7.40055504162814</v>
       </c>
       <c r="C124" t="n">
-        <v>7</v>
+        <v>10.01</v>
       </c>
       <c r="D124" t="n">
-        <v>2.18978102189781</v>
+        <v>-6.44859813084112</v>
       </c>
       <c r="E124" t="n">
-        <v>1.09223300970874</v>
+        <v>-1.62271805273834</v>
       </c>
       <c r="F124" t="n">
-        <v>8.33</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.35885167464113</v>
+        <v>0.414078674948229</v>
       </c>
       <c r="H124" t="n">
-        <v>-7.83645655877342</v>
+        <v>-2.70270270270271</v>
       </c>
       <c r="I124" t="n">
-        <v>5.41</v>
+        <v>5.76</v>
       </c>
       <c r="J124" t="n">
-        <v>4.03846153846155</v>
+        <v>-1.03092783505156</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>21.3310580204778</v>
+        <v>5.9745347698335</v>
       </c>
       <c r="C125" t="n">
-        <v>7.11</v>
+        <v>10.82</v>
       </c>
       <c r="D125" t="n">
-        <v>1.57142857142858</v>
+        <v>0.09250693802033499</v>
       </c>
       <c r="E125" t="n">
-        <v>0.60386473429952</v>
+        <v>-3.82775119617223</v>
       </c>
       <c r="F125" t="n">
-        <v>8.33</v>
+        <v>10.05</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1.9269776876268</v>
       </c>
       <c r="H125" t="n">
-        <v>3.23159784560143</v>
+        <v>-8.296943231441061</v>
       </c>
       <c r="I125" t="n">
-        <v>5.75</v>
+        <v>6.3</v>
       </c>
       <c r="J125" t="n">
-        <v>6.28465804066542</v>
+        <v>6.41891891891892</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>23.5897435897436</v>
+        <v>9.73187686196624</v>
       </c>
       <c r="C126" t="n">
-        <v>7.23</v>
+        <v>11.05</v>
       </c>
       <c r="D126" t="n">
-        <v>1.68776371308017</v>
+        <v>2.1256931608133</v>
       </c>
       <c r="E126" t="n">
-        <v>4.34258142340171</v>
+        <v>-3.37394564198688</v>
       </c>
       <c r="F126" t="n">
-        <v>8.65</v>
+        <v>10.31</v>
       </c>
       <c r="G126" t="n">
-        <v>3.84153661464586</v>
+        <v>2.58706467661692</v>
       </c>
       <c r="H126" t="n">
-        <v>20.0757575757576</v>
+        <v>2.34948604992657</v>
       </c>
       <c r="I126" t="n">
-        <v>6.34</v>
+        <v>6.97</v>
       </c>
       <c r="J126" t="n">
-        <v>10.2608695652174</v>
+        <v>10.6349206349206</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>19</v>
+        <v>7.53768844221105</v>
       </c>
       <c r="C127" t="n">
-        <v>7.14</v>
+        <v>10.7</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.24481327800831</v>
+        <v>-3.16742081447965</v>
       </c>
       <c r="E127" t="n">
-        <v>2.81848928974068</v>
+        <v>-6.353591160221</v>
       </c>
       <c r="F127" t="n">
-        <v>9.119999999999999</v>
+        <v>10.17</v>
       </c>
       <c r="G127" t="n">
-        <v>5.43352601156069</v>
+        <v>-1.35790494665375</v>
       </c>
       <c r="H127" t="n">
-        <v>21.5139442231076</v>
+        <v>4.45103857566764</v>
       </c>
       <c r="I127" t="n">
-        <v>6.1</v>
+        <v>7.04</v>
       </c>
       <c r="J127" t="n">
-        <v>-3.78548895899054</v>
+        <v>1.00430416068866</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>17.1849427168576</v>
+        <v>3.38164251207729</v>
       </c>
       <c r="C128" t="n">
-        <v>7.16</v>
+        <v>10.7</v>
       </c>
       <c r="D128" t="n">
-        <v>0.280112044817926</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>2.21238938053099</v>
+        <v>-12.532637075718</v>
       </c>
       <c r="F128" t="n">
-        <v>9.24</v>
+        <v>10.05</v>
       </c>
       <c r="G128" t="n">
-        <v>1.31578947368422</v>
+        <v>-1.17994100294985</v>
       </c>
       <c r="H128" t="n">
-        <v>20.746887966805</v>
+        <v>1.33333333333334</v>
       </c>
       <c r="I128" t="n">
-        <v>5.82</v>
+        <v>6.84</v>
       </c>
       <c r="J128" t="n">
-        <v>-4.59016393442622</v>
+        <v>-2.84090909090909</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>12.7131782945736</v>
+        <v>-5.13728963684676</v>
       </c>
       <c r="C129" t="n">
-        <v>7.27</v>
+        <v>10.71</v>
       </c>
       <c r="D129" t="n">
-        <v>1.536312849162</v>
+        <v>0.093457943925259</v>
       </c>
       <c r="E129" t="n">
-        <v>3.02690582959642</v>
+        <v>-25.8658806190125</v>
       </c>
       <c r="F129" t="n">
-        <v>9.19</v>
+        <v>10.06</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.541125541125552</v>
+        <v>0.099502487562191</v>
       </c>
       <c r="H129" t="n">
-        <v>21.2631578947368</v>
+        <v>-3.98230088495576</v>
       </c>
       <c r="I129" t="n">
-        <v>5.76</v>
+        <v>6.51</v>
       </c>
       <c r="J129" t="n">
-        <v>-1.03092783505156</v>
+        <v>-4.82456140350878</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>15.210843373494</v>
+        <v>-8.94378194207836</v>
       </c>
       <c r="C130" t="n">
-        <v>7.65</v>
+        <v>10.69</v>
       </c>
       <c r="D130" t="n">
-        <v>5.22696011004126</v>
+        <v>-0.186741363211965</v>
       </c>
       <c r="E130" t="n">
-        <v>6.64335664335664</v>
+        <v>-34.9807445442875</v>
       </c>
       <c r="F130" t="n">
-        <v>9.15</v>
+        <v>10.13</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.43525571273122</v>
+        <v>0.6958250497017811</v>
       </c>
       <c r="H130" t="n">
-        <v>19.8731501057082</v>
+        <v>-8.597285067873299</v>
       </c>
       <c r="I130" t="n">
-        <v>5.67</v>
+        <v>6.06</v>
       </c>
       <c r="J130" t="n">
-        <v>-1.5625</v>
+        <v>-6.91244239631337</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>10.0418410041841</v>
+        <v>-6.26086956521739</v>
       </c>
       <c r="C131" t="n">
-        <v>7.89</v>
+        <v>10.78</v>
       </c>
       <c r="D131" t="n">
-        <v>3.13725490196077</v>
+        <v>0.841908325537872</v>
       </c>
       <c r="E131" t="n">
-        <v>4.29082240762813</v>
+        <v>-36.1042183622829</v>
       </c>
       <c r="F131" t="n">
-        <v>8.75</v>
+        <v>10.3</v>
       </c>
       <c r="G131" t="n">
-        <v>-4.37158469945356</v>
+        <v>1.6781836130306</v>
       </c>
       <c r="H131" t="n">
-        <v>5.56701030927836</v>
+        <v>-7.59493670886077</v>
       </c>
       <c r="I131" t="n">
-        <v>5.12</v>
+        <v>5.84</v>
       </c>
       <c r="J131" t="n">
-        <v>-9.700176366843021</v>
+        <v>-3.63036303630363</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3.47826086956519</v>
+        <v>-3.24276950043823</v>
       </c>
       <c r="C132" t="n">
-        <v>7.14</v>
+        <v>11.04</v>
       </c>
       <c r="D132" t="n">
-        <v>-9.50570342205323</v>
+        <v>2.41187384044528</v>
       </c>
       <c r="E132" t="n">
-        <v>6.14250614250614</v>
+        <v>-33.9136041263701</v>
       </c>
       <c r="F132" t="n">
-        <v>8.640000000000001</v>
+        <v>10.25</v>
       </c>
       <c r="G132" t="n">
-        <v>-1.25714285714284</v>
+        <v>-0.485436893203897</v>
       </c>
       <c r="H132" t="n">
-        <v>9.05172413793103</v>
+        <v>-7.74091627172197</v>
       </c>
       <c r="I132" t="n">
-        <v>5.06</v>
+        <v>5.84</v>
       </c>
       <c r="J132" t="n">
-        <v>-1.17187500000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>6.57276995305165</v>
+        <v>-2.26283724978241</v>
       </c>
       <c r="C133" t="n">
-        <v>6.81</v>
+        <v>11.23</v>
       </c>
       <c r="D133" t="n">
-        <v>-4.6218487394958</v>
+        <v>1.72101449275364</v>
       </c>
       <c r="E133" t="n">
-        <v>8.03461063040791</v>
+        <v>-21.877424359969</v>
       </c>
       <c r="F133" t="n">
-        <v>8.74</v>
+        <v>10.07</v>
       </c>
       <c r="G133" t="n">
-        <v>1.15740740740739</v>
+        <v>-1.7560975609756</v>
       </c>
       <c r="H133" t="n">
-        <v>16.7755991285403</v>
+        <v>-5.9190031152648</v>
       </c>
       <c r="I133" t="n">
-        <v>5.36</v>
+        <v>6.04</v>
       </c>
       <c r="J133" t="n">
-        <v>5.92885375494072</v>
+        <v>3.42465753424659</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>7.36196319018406</v>
+        <v>-0.4359197908</v>
       </c>
       <c r="C134" t="n">
-        <v>7</v>
+        <v>11.42</v>
       </c>
       <c r="D134" t="n">
-        <v>2.79001468428781</v>
+        <v>2.3297491039</v>
       </c>
       <c r="E134" t="n">
-        <v>11.0840438489647</v>
+        <v>-4.7131147541</v>
       </c>
       <c r="F134" t="n">
-        <v>9.119999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G134" t="n">
-        <v>4.34782608695652</v>
+        <v>-1.7951425554</v>
       </c>
       <c r="H134" t="n">
-        <v>24.4813278008299</v>
+        <v>-1.1844331641</v>
       </c>
       <c r="I134" t="n">
-        <v>6</v>
+        <v>5.84</v>
       </c>
       <c r="J134" t="n">
-        <v>11.9402985074627</v>
+        <v>-1.3513513514</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3.35766423357664</v>
+        <v>1.9626168224</v>
       </c>
       <c r="C135" t="n">
-        <v>7.08</v>
+        <v>10.91</v>
       </c>
       <c r="D135" t="n">
-        <v>1.14285714285714</v>
+        <v>-4.465849387</v>
       </c>
       <c r="E135" t="n">
-        <v>9.68899521531101</v>
+        <v>-3.933747412</v>
       </c>
       <c r="F135" t="n">
-        <v>9.17</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="G135" t="n">
-        <v>0.548245614035096</v>
+        <v>-0.2150537634</v>
       </c>
       <c r="H135" t="n">
-        <v>21.9230769230769</v>
+        <v>8.4192439863</v>
       </c>
       <c r="I135" t="n">
-        <v>6.34</v>
+        <v>6.31</v>
       </c>
       <c r="J135" t="n">
-        <v>5.66666666666666</v>
+        <v>8.0479452055</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3.28571428571429</v>
+        <v>3.8961038961</v>
       </c>
       <c r="C136" t="n">
-        <v>7.23</v>
+        <v>10.4</v>
       </c>
       <c r="D136" t="n">
-        <v>2.11864406779661</v>
+        <v>-4.6746104491</v>
       </c>
       <c r="E136" t="n">
-        <v>11.1644657863145</v>
+        <v>-2.8865979381</v>
       </c>
       <c r="F136" t="n">
-        <v>9.26</v>
+        <v>9.42</v>
       </c>
       <c r="G136" t="n">
-        <v>0.9814612868047869</v>
+        <v>1.5086206897</v>
       </c>
       <c r="H136" t="n">
-        <v>18.8539741219963</v>
+        <v>15.4513888889</v>
       </c>
       <c r="I136" t="n">
-        <v>6.43</v>
+        <v>6.65</v>
       </c>
       <c r="J136" t="n">
-        <v>1.41955835962145</v>
+        <v>5.3882725832</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>8.298171589310829</v>
+        <v>-9.42698706099814</v>
       </c>
       <c r="C137" t="n">
-        <v>7.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>6.50069156293223</v>
+        <v>-2.09790209790209</v>
       </c>
       <c r="E137" t="n">
-        <v>14.405762304922</v>
+        <v>-2.38805970149254</v>
       </c>
       <c r="F137" t="n">
-        <v>9.529999999999999</v>
+        <v>9.81</v>
       </c>
       <c r="G137" t="n">
-        <v>2.91576673866089</v>
+        <v>1.13402061855672</v>
       </c>
       <c r="H137" t="n">
-        <v>18.7826086956522</v>
+        <v>-5.23809523809524</v>
       </c>
       <c r="I137" t="n">
-        <v>6.83</v>
+        <v>5.97</v>
       </c>
       <c r="J137" t="n">
-        <v>6.22083981337479</v>
+        <v>3.64583333333333</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>12.0331950207469</v>
+        <v>-10.0452488687783</v>
       </c>
       <c r="C138" t="n">
-        <v>8.1</v>
+        <v>9.94</v>
       </c>
       <c r="D138" t="n">
-        <v>5.1948051948052</v>
+        <v>1.42857142857142</v>
       </c>
       <c r="E138" t="n">
-        <v>18.6127167630058</v>
+        <v>-3.87972841901067</v>
       </c>
       <c r="F138" t="n">
-        <v>10.26</v>
+        <v>9.91</v>
       </c>
       <c r="G138" t="n">
-        <v>7.66002098635887</v>
+        <v>1.01936799184506</v>
       </c>
       <c r="H138" t="n">
-        <v>18.6119873817035</v>
+        <v>-5.30846484935438</v>
       </c>
       <c r="I138" t="n">
-        <v>7.52</v>
+        <v>6.6</v>
       </c>
       <c r="J138" t="n">
-        <v>10.1024890190337</v>
+        <v>10.5527638190955</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>16.9467787114846</v>
+        <v>-9.81308411214953</v>
       </c>
       <c r="C139" t="n">
-        <v>8.35</v>
+        <v>9.65</v>
       </c>
       <c r="D139" t="n">
-        <v>3.08641975308642</v>
+        <v>-2.91750503018108</v>
       </c>
       <c r="E139" t="n">
-        <v>19.8464912280702</v>
+        <v>-3.63815142576203</v>
       </c>
       <c r="F139" t="n">
-        <v>10.93</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G139" t="n">
-        <v>6.53021442495128</v>
+        <v>-1.10998990918264</v>
       </c>
       <c r="H139" t="n">
-        <v>20.327868852459</v>
+        <v>-6.67613636363636</v>
       </c>
       <c r="I139" t="n">
-        <v>7.34</v>
+        <v>6.57</v>
       </c>
       <c r="J139" t="n">
-        <v>-2.3936170212766</v>
+        <v>-0.454545454545439</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>17.7374301675978</v>
+        <v>-9.626168224299059</v>
       </c>
       <c r="C140" t="n">
-        <v>8.43</v>
+        <v>9.67</v>
       </c>
       <c r="D140" t="n">
-        <v>0.958083832335333</v>
+        <v>0.207253886010349</v>
       </c>
       <c r="E140" t="n">
-        <v>21.6450216450216</v>
+        <v>-4.47761194029852</v>
       </c>
       <c r="F140" t="n">
-        <v>11.24</v>
+        <v>9.6</v>
       </c>
       <c r="G140" t="n">
-        <v>2.83623055809699</v>
+        <v>-2.04081632653063</v>
       </c>
       <c r="H140" t="n">
-        <v>24.0549828178694</v>
+        <v>-8.62573099415205</v>
       </c>
       <c r="I140" t="n">
-        <v>7.22</v>
+        <v>6.25</v>
       </c>
       <c r="J140" t="n">
-        <v>-1.63487738419619</v>
+        <v>-4.87062404870625</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>19.8074277854195</v>
+        <v>-7.09617180205417</v>
       </c>
       <c r="C141" t="n">
-        <v>8.710000000000001</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>3.32147093712931</v>
+        <v>2.89555325749743</v>
       </c>
       <c r="E141" t="n">
-        <v>20.2393906420022</v>
+        <v>-6.56063618290258</v>
       </c>
       <c r="F141" t="n">
-        <v>11.05</v>
+        <v>9.4</v>
       </c>
       <c r="G141" t="n">
-        <v>-1.69039145907473</v>
+        <v>-2.08333333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>37.6736111111111</v>
+        <v>-5.3763440860215</v>
       </c>
       <c r="I141" t="n">
-        <v>7.93</v>
+        <v>6.16</v>
       </c>
       <c r="J141" t="n">
-        <v>9.83379501385042</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>15.5555555555555</v>
+        <v>-5.70626753975678</v>
       </c>
       <c r="C142" t="n">
-        <v>8.84</v>
+        <v>10.08</v>
       </c>
       <c r="D142" t="n">
-        <v>1.49253731343282</v>
+        <v>1.3065326633166</v>
       </c>
       <c r="E142" t="n">
-        <v>14.7540983606557</v>
+        <v>-7.79861796643634</v>
       </c>
       <c r="F142" t="n">
-        <v>10.5</v>
+        <v>9.34</v>
       </c>
       <c r="G142" t="n">
-        <v>-4.97737556561087</v>
+        <v>-0.638297872340431</v>
       </c>
       <c r="H142" t="n">
-        <v>44.4444444444444</v>
+        <v>-1.98019801980197</v>
       </c>
       <c r="I142" t="n">
-        <v>8.19</v>
+        <v>5.94</v>
       </c>
       <c r="J142" t="n">
-        <v>3.27868852459017</v>
+        <v>-3.57142857142857</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>10.6463878326996</v>
+        <v>-1.0204081632653</v>
       </c>
       <c r="C143" t="n">
-        <v>8.73</v>
+        <v>10.67</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.24434389140271</v>
+        <v>5.85317460317461</v>
       </c>
       <c r="E143" t="n">
-        <v>14.6285714285714</v>
+        <v>-8.15533980582525</v>
       </c>
       <c r="F143" t="n">
-        <v>10.03</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>-4.47619047619048</v>
+        <v>1.28479657387581</v>
       </c>
       <c r="H143" t="n">
-        <v>47.0703125</v>
+        <v>4.7945205479452</v>
       </c>
       <c r="I143" t="n">
-        <v>7.53</v>
+        <v>6.12</v>
       </c>
       <c r="J143" t="n">
-        <v>-8.05860805860806</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>16.8067226890756</v>
+        <v>-0.6340579710000001</v>
       </c>
       <c r="C144" t="n">
-        <v>8.34</v>
+        <v>10.97</v>
       </c>
       <c r="D144" t="n">
-        <v>-4.46735395189005</v>
+        <v>2.8116213683</v>
       </c>
       <c r="E144" t="n">
-        <v>16.2037037037037</v>
+        <v>-7.0243902439</v>
       </c>
       <c r="F144" t="n">
-        <v>10.04</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G144" t="n">
-        <v>0.099700897308068</v>
+        <v>0.7399577167</v>
       </c>
       <c r="H144" t="n">
-        <v>36.3636363636364</v>
+        <v>5.8219178082</v>
       </c>
       <c r="I144" t="n">
-        <v>6.9</v>
+        <v>6.18</v>
       </c>
       <c r="J144" t="n">
-        <v>-8.366533864541839</v>
+        <v>0.9803921569</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>21.43906020558</v>
+        <v>-0.6233303651</v>
       </c>
       <c r="C145" t="n">
-        <v>8.27</v>
+        <v>11.16</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.839328537170275</v>
+        <v>1.7319963537</v>
       </c>
       <c r="E145" t="n">
-        <v>17.9633867276888</v>
+        <v>-5.9582919563</v>
       </c>
       <c r="F145" t="n">
-        <v>10.31</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>2.68924302788847</v>
+        <v>-0.629590766</v>
       </c>
       <c r="H145" t="n">
-        <v>24.2537313432836</v>
+        <v>-1.9867549669</v>
       </c>
       <c r="I145" t="n">
-        <v>6.66</v>
+        <v>5.92</v>
       </c>
       <c r="J145" t="n">
-        <v>-3.47826086956522</v>
+        <v>-4.2071197411</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>18.7142857142857</v>
+        <v>4.9036777583</v>
       </c>
       <c r="C146" t="n">
-        <v>8.31</v>
+        <v>11.98</v>
       </c>
       <c r="D146" t="n">
-        <v>0.483675937122129</v>
+        <v>-0.9098428453</v>
       </c>
       <c r="E146" t="n">
-        <v>15.2412280701755</v>
+        <v>19.247311828</v>
       </c>
       <c r="F146" t="n">
-        <v>10.51</v>
+        <v>11.09</v>
       </c>
       <c r="G146" t="n">
-        <v>1.93986420950534</v>
+        <v>-1.9451812555</v>
       </c>
       <c r="H146" t="n">
-        <v>9.33333333333333</v>
+        <v>15.7534246575</v>
       </c>
       <c r="I146" t="n">
-        <v>6.56</v>
+        <v>6.76</v>
       </c>
       <c r="J146" t="n">
-        <v>-1.50150150150151</v>
+        <v>1.0463378176</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>25</v>
+        <v>6.3244729606</v>
       </c>
       <c r="C147" t="n">
-        <v>8.85</v>
+        <v>11.6</v>
       </c>
       <c r="D147" t="n">
-        <v>6.49819494584835</v>
+        <v>-3.1719532554</v>
       </c>
       <c r="E147" t="n">
-        <v>20.0654307524537</v>
+        <v>19.5043103448</v>
       </c>
       <c r="F147" t="n">
-        <v>11.01</v>
+        <v>11.09</v>
       </c>
       <c r="G147" t="n">
-        <v>4.75737392959086</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>13.4069400630915</v>
+        <v>7.765451664</v>
       </c>
       <c r="I147" t="n">
-        <v>7.19</v>
+        <v>6.8</v>
       </c>
       <c r="J147" t="n">
-        <v>9.603658536585391</v>
+        <v>0.5917159762999999</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>21.5767634854772</v>
+        <v>15.4807692308</v>
       </c>
       <c r="C148" t="n">
-        <v>8.789999999999999</v>
+        <v>12.01</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.677966101694921</v>
+        <v>3.5344827586</v>
       </c>
       <c r="E148" t="n">
-        <v>16.8466522678186</v>
+        <v>17.0912951168</v>
       </c>
       <c r="F148" t="n">
-        <v>10.82</v>
+        <v>11.03</v>
       </c>
       <c r="G148" t="n">
-        <v>-1.72570390554041</v>
+        <v>-0.5410279531</v>
       </c>
       <c r="H148" t="n">
-        <v>2.1772939346812</v>
+        <v>5.8646616541</v>
       </c>
       <c r="I148" t="n">
-        <v>6.57</v>
+        <v>7.04</v>
       </c>
       <c r="J148" t="n">
-        <v>-8.623087621696801</v>
+        <v>3.5294117647</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>14.8051948051948</v>
+        <v>4.8979591837</v>
       </c>
       <c r="C149" t="n">
-        <v>8.84</v>
+        <v>10.28</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5688282138794279</v>
+        <v>-1.1538461538</v>
       </c>
       <c r="E149" t="n">
-        <v>13.4312696747114</v>
+        <v>-0.7135575943</v>
       </c>
       <c r="F149" t="n">
-        <v>10.81</v>
+        <v>9.74</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.09242144177449101</v>
+        <v>3.3970276008</v>
       </c>
       <c r="H149" t="n">
-        <v>-9.663250366032219</v>
+        <v>25.2931323283</v>
       </c>
       <c r="I149" t="n">
-        <v>6.17</v>
+        <v>7.48</v>
       </c>
       <c r="J149" t="n">
-        <v>-6.08828006088279</v>
+        <v>12.4812030075</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>6.79012345679013</v>
+        <v>3.6217303823</v>
       </c>
       <c r="C150" t="n">
-        <v>8.65</v>
+        <v>10.3</v>
       </c>
       <c r="D150" t="n">
-        <v>-2.14932126696831</v>
+        <v>0.1945525292</v>
       </c>
       <c r="E150" t="n">
-        <v>4.87329434697857</v>
+        <v>-2.0181634712</v>
       </c>
       <c r="F150" t="n">
-        <v>10.76</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.462534690101762</v>
+        <v>-0.3080082136</v>
       </c>
       <c r="H150" t="n">
-        <v>-17.6861702127659</v>
+        <v>15.303030303</v>
       </c>
       <c r="I150" t="n">
-        <v>6.19</v>
+        <v>7.61</v>
       </c>
       <c r="J150" t="n">
-        <v>0.32414910858995</v>
+        <v>1.7379679144</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2.75449101796408</v>
+        <v>5.2849740933</v>
       </c>
       <c r="C151" t="n">
-        <v>8.58</v>
+        <v>10.16</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.8092485549132959</v>
+        <v>-1.359223301</v>
       </c>
       <c r="E151" t="n">
-        <v>-1.18938700823421</v>
+        <v>1.5306122449</v>
       </c>
       <c r="F151" t="n">
-        <v>10.8</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="G151" t="n">
-        <v>0.371747211895922</v>
+        <v>2.4716786818</v>
       </c>
       <c r="H151" t="n">
-        <v>-20.5722070844687</v>
+        <v>15.5251141553</v>
       </c>
       <c r="I151" t="n">
-        <v>5.83</v>
+        <v>7.59</v>
       </c>
       <c r="J151" t="n">
-        <v>-5.81583198707594</v>
+        <v>-0.2628120894</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1.8979833926453</v>
+        <v>8.790072388800001</v>
       </c>
       <c r="C152" t="n">
-        <v>8.59</v>
+        <v>10.52</v>
       </c>
       <c r="D152" t="n">
-        <v>0.116550116550115</v>
+        <v>3.5433070866</v>
       </c>
       <c r="E152" t="n">
-        <v>-3.73665480427047</v>
+        <v>6.3541666667</v>
       </c>
       <c r="F152" t="n">
-        <v>10.82</v>
+        <v>10.21</v>
       </c>
       <c r="G152" t="n">
-        <v>0.185185185185176</v>
+        <v>2.6130653266</v>
       </c>
       <c r="H152" t="n">
-        <v>-23.2686980609418</v>
+        <v>25.44</v>
       </c>
       <c r="I152" t="n">
-        <v>5.54</v>
+        <v>7.84</v>
       </c>
       <c r="J152" t="n">
-        <v>-4.97427101200685</v>
+        <v>3.2938076416</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-1.03329506314583</v>
+        <v>11.0552763819</v>
       </c>
       <c r="C153" t="n">
-        <v>8.619999999999999</v>
+        <v>11.05</v>
       </c>
       <c r="D153" t="n">
-        <v>0.349243306169967</v>
+        <v>5.0380228137</v>
       </c>
       <c r="E153" t="n">
-        <v>-4.16289592760182</v>
+        <v>11.7021276596</v>
       </c>
       <c r="F153" t="n">
-        <v>10.59</v>
+        <v>10.5</v>
       </c>
       <c r="G153" t="n">
-        <v>-2.12569316081331</v>
+        <v>2.8403525955</v>
       </c>
       <c r="H153" t="n">
-        <v>-31.1475409836066</v>
+        <v>26.6233766234</v>
       </c>
       <c r="I153" t="n">
-        <v>5.46</v>
+        <v>7.8</v>
       </c>
       <c r="J153" t="n">
-        <v>-1.44404332129963</v>
+        <v>-0.5102040816</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4.41176470588236</v>
+        <v>13.1</v>
       </c>
       <c r="C154" t="n">
-        <v>9.23</v>
+        <v>11.4</v>
       </c>
       <c r="D154" t="n">
-        <v>7.07656612529004</v>
+        <v>3.17</v>
       </c>
       <c r="E154" t="n">
-        <v>-3.61904761904762</v>
+        <v>16.92</v>
       </c>
       <c r="F154" t="n">
-        <v>10.12</v>
+        <v>10.92</v>
       </c>
       <c r="G154" t="n">
-        <v>-4.438149197356</v>
+        <v>4</v>
       </c>
       <c r="H154" t="n">
-        <v>-34.4322344322344</v>
+        <v>23.06</v>
       </c>
       <c r="I154" t="n">
-        <v>5.37</v>
+        <v>7.31</v>
       </c>
       <c r="J154" t="n">
-        <v>-1.64835164835165</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>5.15463917525771</v>
+        <v>10.59</v>
       </c>
       <c r="C155" t="n">
-        <v>9.18</v>
+        <v>11.8</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.541711809317448</v>
+        <v>3.5087719298</v>
       </c>
       <c r="E155" t="n">
-        <v>-4.58624127617148</v>
+        <v>17.44</v>
       </c>
       <c r="F155" t="n">
-        <v>9.57</v>
+        <v>11.11</v>
       </c>
       <c r="G155" t="n">
-        <v>-5.43478260869564</v>
+        <v>1.7399267399</v>
       </c>
       <c r="H155" t="n">
-        <v>-34.1301460823373</v>
+        <v>12.91</v>
       </c>
       <c r="I155" t="n">
-        <v>4.96</v>
+        <v>6.91</v>
       </c>
       <c r="J155" t="n">
-        <v>-7.63500931098696</v>
+        <v>-5.4719562244</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>8.273381294964031</v>
+        <v>9.1157702826</v>
       </c>
       <c r="C156" t="n">
-        <v>9.029999999999999</v>
+        <v>11.97</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.63398692810458</v>
+        <v>1.4406779661</v>
       </c>
       <c r="E156" t="n">
-        <v>-6.07569721115537</v>
+        <v>17.8384050367</v>
       </c>
       <c r="F156" t="n">
-        <v>9.43</v>
+        <v>11.23</v>
       </c>
       <c r="G156" t="n">
-        <v>-1.46290491118079</v>
+        <v>1.0801080108</v>
       </c>
       <c r="H156" t="n">
-        <v>-29.5652173913043</v>
+        <v>10.1941747573</v>
       </c>
       <c r="I156" t="n">
-        <v>4.86</v>
+        <v>6.81</v>
       </c>
       <c r="J156" t="n">
-        <v>-2.01612903225806</v>
+        <v>-1.4471780029</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>4.11124546553809</v>
+        <v>8.333333333300001</v>
       </c>
       <c r="C157" t="n">
-        <v>8.609999999999999</v>
+        <v>12.09</v>
       </c>
       <c r="D157" t="n">
-        <v>-4.65116279069767</v>
+        <v>1.0025062657</v>
       </c>
       <c r="E157" t="n">
-        <v>-8.05043646944713</v>
+        <v>19.4297782471</v>
       </c>
       <c r="F157" t="n">
-        <v>9.48</v>
+        <v>11.31</v>
       </c>
       <c r="G157" t="n">
-        <v>0.530222693531286</v>
+        <v>0.7123775601</v>
       </c>
       <c r="H157" t="n">
-        <v>-27.6276276276276</v>
+        <v>13.0067567568</v>
       </c>
       <c r="I157" t="n">
-        <v>4.82</v>
+        <v>6.69</v>
       </c>
       <c r="J157" t="n">
-        <v>-0.823045267489704</v>
+        <v>-1.7621145374</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1.44404332129963</v>
+        <v>21.4980544747</v>
       </c>
       <c r="C158" t="n">
-        <v>8.43</v>
+        <v>12.49</v>
       </c>
       <c r="D158" t="n">
-        <v>-2.09059233449477</v>
+        <v>3.9966694421</v>
       </c>
       <c r="E158" t="n">
-        <v>-9.3244529019981</v>
+        <v>18.6858316222</v>
       </c>
       <c r="F158" t="n">
-        <v>9.529999999999999</v>
+        <v>11.56</v>
       </c>
       <c r="G158" t="n">
-        <v>0.527426160337541</v>
+        <v>4.8050770626</v>
       </c>
       <c r="H158" t="n">
-        <v>-19.359756097561</v>
+        <v>3.0748663102</v>
       </c>
       <c r="I158" t="n">
-        <v>5.29</v>
+        <v>7.71</v>
       </c>
       <c r="J158" t="n">
-        <v>9.75103734439833</v>
+        <v>9.5170454545</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-5.31073446327682</v>
+        <v>16.0194174757</v>
       </c>
       <c r="C159" t="n">
-        <v>8.380000000000001</v>
+        <v>11.95</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.593119810201642</v>
+        <v>-4.323458767</v>
       </c>
       <c r="E159" t="n">
-        <v>-13.3514986376022</v>
+        <v>16.4778578785</v>
       </c>
       <c r="F159" t="n">
-        <v>9.539999999999999</v>
+        <v>11.31</v>
       </c>
       <c r="G159" t="n">
-        <v>0.10493179433368</v>
+        <v>-2.1626297578</v>
       </c>
       <c r="H159" t="n">
-        <v>-21.8358831710709</v>
+        <v>-1.8396846255</v>
       </c>
       <c r="I159" t="n">
-        <v>5.62</v>
+        <v>7.47</v>
       </c>
       <c r="J159" t="n">
-        <v>6.23818525519849</v>
+        <v>-3.1128404669</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-9.67007963594993</v>
+        <v>18.6023622047</v>
       </c>
       <c r="C160" t="n">
-        <v>7.94</v>
+        <v>12.05</v>
       </c>
       <c r="D160" t="n">
-        <v>-5.25059665871123</v>
+        <v>0.8368200837000001</v>
       </c>
       <c r="E160" t="n">
-        <v>-14.8798521256932</v>
+        <v>14.5728643216</v>
       </c>
       <c r="F160" t="n">
-        <v>9.210000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="G160" t="n">
-        <v>-3.45911949685532</v>
+        <v>0.7957559682000001</v>
       </c>
       <c r="H160" t="n">
-        <v>-14.1552511415525</v>
+        <v>2.1080368906</v>
       </c>
       <c r="I160" t="n">
-        <v>5.64</v>
+        <v>7.75</v>
       </c>
       <c r="J160" t="n">
-        <v>0.35587188612098</v>
+        <v>3.7483266399</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-9.049773755656121</v>
+        <v>15.7794676806</v>
       </c>
       <c r="C161" t="n">
-        <v>8.039999999999999</v>
+        <v>12.18</v>
       </c>
       <c r="D161" t="n">
-        <v>1.25944584382871</v>
+        <v>1.0788381743</v>
       </c>
       <c r="E161" t="n">
-        <v>-17.0212765957447</v>
+        <v>13.124387855</v>
       </c>
       <c r="F161" t="n">
-        <v>8.970000000000001</v>
+        <v>11.55</v>
       </c>
       <c r="G161" t="n">
-        <v>-2.60586319218241</v>
+        <v>1.3157894737</v>
       </c>
       <c r="H161" t="n">
-        <v>-10.2106969205835</v>
+        <v>-1.1479591837</v>
       </c>
       <c r="I161" t="n">
-        <v>5.54</v>
+        <v>7.75</v>
       </c>
       <c r="J161" t="n">
-        <v>-1.77304964539007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-3.69942196531792</v>
+        <v>10.86</v>
       </c>
       <c r="C162" t="n">
-        <v>8.33</v>
+        <v>12.25</v>
       </c>
       <c r="D162" t="n">
-        <v>3.60696517412937</v>
+        <v>0.57</v>
       </c>
       <c r="E162" t="n">
-        <v>-16.1710037174721</v>
+        <v>12.57</v>
       </c>
       <c r="F162" t="n">
-        <v>9.02</v>
+        <v>11.82</v>
       </c>
       <c r="G162" t="n">
-        <v>0.557413600891849</v>
+        <v>2.34</v>
       </c>
       <c r="H162" t="n">
-        <v>-6.46203554119548</v>
+        <v>-1.15</v>
       </c>
       <c r="I162" t="n">
-        <v>5.79</v>
+        <v>7.71</v>
       </c>
       <c r="J162" t="n">
-        <v>4.51263537906136</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-3.72960372960374</v>
+        <v>7.8947368421</v>
       </c>
       <c r="C163" t="n">
-        <v>8.26</v>
+        <v>12.3</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.840336134453793</v>
+        <v>0.4081632653</v>
       </c>
       <c r="E163" t="n">
-        <v>-13.5185185185185</v>
+        <v>10.989010989</v>
       </c>
       <c r="F163" t="n">
-        <v>9.34</v>
+        <v>12.12</v>
       </c>
       <c r="G163" t="n">
-        <v>3.54767184035477</v>
+        <v>2.538071066</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.857632933104625</v>
+        <v>3.4199726402</v>
       </c>
       <c r="I163" t="n">
-        <v>5.78</v>
+        <v>7.56</v>
       </c>
       <c r="J163" t="n">
-        <v>-0.172711571675293</v>
+        <v>-1.9455252918</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-3.37601862630964</v>
+        <v>6.3559322034</v>
       </c>
       <c r="C164" t="n">
-        <v>8.300000000000001</v>
+        <v>12.55</v>
       </c>
       <c r="D164" t="n">
-        <v>0.484261501210653</v>
+        <v>2.0325203252</v>
       </c>
       <c r="E164" t="n">
-        <v>-12.4768946395564</v>
+        <v>11.6111611161</v>
       </c>
       <c r="F164" t="n">
-        <v>9.470000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="G164" t="n">
-        <v>1.39186295503212</v>
+        <v>2.3102310231</v>
       </c>
       <c r="H164" t="n">
-        <v>1.62454873646209</v>
+        <v>3.0390738061</v>
       </c>
       <c r="I164" t="n">
-        <v>5.63</v>
+        <v>7.12</v>
       </c>
       <c r="J164" t="n">
-        <v>-2.59515570934256</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>2016-08</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>-0.812064965197195</v>
-      </c>
-      <c r="C165" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="D165" t="n">
-        <v>3.01204819277108</v>
-      </c>
-      <c r="E165" t="n">
-        <v>-10.9537299338999</v>
-      </c>
-      <c r="F165" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-0.422386483632536</v>
-      </c>
-      <c r="H165" t="n">
-        <v>13.7362637362637</v>
-      </c>
-      <c r="I165" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="J165" t="n">
-        <v>10.3019538188277</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>2016-09</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>-3.03358613217769</v>
-      </c>
-      <c r="C166" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="D166" t="n">
-        <v>4.67836257309939</v>
-      </c>
-      <c r="E166" t="n">
-        <v>-8.300395256917</v>
-      </c>
-      <c r="F166" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-1.59066808059384</v>
-      </c>
-      <c r="H166" t="n">
-        <v>18.8081936685289</v>
-      </c>
-      <c r="I166" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="J166" t="n">
-        <v>2.73752012882447</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>2016-10</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>1.63398692810458</v>
-      </c>
-      <c r="C167" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="D167" t="n">
-        <v>4.24581005586593</v>
-      </c>
-      <c r="E167" t="n">
-        <v>-6.89655172413794</v>
-      </c>
-      <c r="F167" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-3.98706896551724</v>
-      </c>
-      <c r="H167" t="n">
-        <v>14.7177419354839</v>
-      </c>
-      <c r="I167" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="J167" t="n">
-        <v>-10.8150470219436</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>2016-11</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>3.32225913621262</v>
-      </c>
-      <c r="C168" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0</v>
-      </c>
-      <c r="E168" t="n">
-        <v>-7.74125132555675</v>
-      </c>
-      <c r="F168" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-2.35690235690237</v>
-      </c>
-      <c r="H168" t="n">
-        <v>8.024691358024681</v>
-      </c>
-      <c r="I168" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J168" t="n">
-        <v>-7.7328646748682</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>2016-12</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>3.36817653890826</v>
-      </c>
-      <c r="C169" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="D169" t="n">
-        <v>-4.60878885316184</v>
-      </c>
-      <c r="E169" t="n">
-        <v>-7.91139240506328</v>
-      </c>
-      <c r="F169" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.344827586206904</v>
-      </c>
-      <c r="H169" t="n">
-        <v>4.56431535269708</v>
-      </c>
-      <c r="I169" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="J169" t="n">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>2017-01</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>8.54092526690393</v>
-      </c>
-      <c r="C170" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="D170" t="n">
-        <v>2.80898876404494</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-4.72193074501574</v>
-      </c>
-      <c r="F170" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="G170" t="n">
-        <v>4.00916380297822</v>
-      </c>
-      <c r="H170" t="n">
-        <v>-3.02457466918715</v>
-      </c>
-      <c r="I170" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="J170" t="n">
-        <v>1.78571428571428</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>2017-02</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>9.54653937947492</v>
-      </c>
-      <c r="C171" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.327868852459005</v>
-      </c>
-      <c r="E171" t="n">
-        <v>-6.07966457023059</v>
-      </c>
-      <c r="F171" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-1.32158590308369</v>
-      </c>
-      <c r="H171" t="n">
-        <v>-9.252669039145911</v>
-      </c>
-      <c r="I171" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J171" t="n">
-        <v>-0.584795321637429</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>2017-03</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>16.624685138539</v>
-      </c>
-      <c r="C172" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.871459694989113</v>
-      </c>
-      <c r="E172" t="n">
-        <v>-1.73724212812161</v>
-      </c>
-      <c r="F172" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="G172" t="n">
-        <v>1.00446428571428</v>
-      </c>
-      <c r="H172" t="n">
-        <v>-5.1418439716312</v>
-      </c>
-      <c r="I172" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J172" t="n">
-        <v>4.90196078431373</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>2017-04</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>25.2487562189055</v>
-      </c>
-      <c r="C173" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="D173" t="n">
-        <v>8.74730021598273</v>
-      </c>
-      <c r="E173" t="n">
-        <v>3.1215161649944</v>
-      </c>
-      <c r="F173" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="G173" t="n">
-        <v>2.20994475138122</v>
-      </c>
-      <c r="H173" t="n">
-        <v>5.5956678700361</v>
-      </c>
-      <c r="I173" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="J173" t="n">
-        <v>9.345794392523359</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="inlineStr">
-        <is>
-          <t>2017-05</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>26.4105642256903</v>
-      </c>
-      <c r="C174" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="D174" t="n">
-        <v>4.56802383316781</v>
-      </c>
-      <c r="E174" t="n">
-        <v>3.99113082039912</v>
-      </c>
-      <c r="F174" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="G174" t="n">
-        <v>1.40540540540542</v>
-      </c>
-      <c r="H174" t="n">
-        <v>8.4628670120898</v>
-      </c>
-      <c r="I174" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="J174" t="n">
-        <v>7.35042735042737</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="inlineStr">
-        <is>
-          <t>2017-06</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>25.0605326876513</v>
-      </c>
-      <c r="C175" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="D175" t="n">
-        <v>-1.89933523266856</v>
-      </c>
-      <c r="E175" t="n">
-        <v>2.35546038543899</v>
-      </c>
-      <c r="F175" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="G175" t="n">
-        <v>1.91897654584221</v>
-      </c>
-      <c r="H175" t="n">
-        <v>3.2871972318339</v>
-      </c>
-      <c r="I175" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J175" t="n">
-        <v>-4.93630573248409</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="inlineStr">
-        <is>
-          <t>2017-07</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>27.2289156626506</v>
-      </c>
-      <c r="C176" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="D176" t="n">
-        <v>2.22652468538239</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1.90073917634635</v>
-      </c>
-      <c r="F176" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.941422594142253</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0.888099467140322</v>
-      </c>
-      <c r="I176" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J176" t="n">
-        <v>-4.85762144053602</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>2017-08</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>27.4853801169591</v>
-      </c>
-      <c r="C177" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D177" t="n">
-        <v>3.21969696969697</v>
-      </c>
-      <c r="E177" t="n">
-        <v>2.01484623541887</v>
-      </c>
-      <c r="F177" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-0.310880829015559</v>
-      </c>
-      <c r="H177" t="n">
-        <v>-12.3993558776167</v>
-      </c>
-      <c r="I177" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="J177" t="n">
-        <v>-4.22535211267603</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>2017-09</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>24.3575418994413</v>
-      </c>
-      <c r="C178" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="D178" t="n">
-        <v>2.11009174311927</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1.83189655172413</v>
-      </c>
-      <c r="F178" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-1.76715176715176</v>
-      </c>
-      <c r="H178" t="n">
-        <v>-17.5548589341693</v>
-      </c>
-      <c r="I178" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="J178" t="n">
-        <v>-3.30882352941177</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>2017-10</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>20.042872454448</v>
-      </c>
-      <c r="C179" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.628930817610041</v>
-      </c>
-      <c r="E179" t="n">
-        <v>2.80583613916947</v>
-      </c>
-      <c r="F179" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-3.06878306878306</v>
-      </c>
-      <c r="H179" t="n">
-        <v>-15.4657293497364</v>
-      </c>
-      <c r="I179" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="J179" t="n">
-        <v>-8.555133079847909</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>2017-11</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>14.4694533762058</v>
-      </c>
-      <c r="C180" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="D180" t="n">
-        <v>-4.64285714285714</v>
-      </c>
-      <c r="E180" t="n">
-        <v>3.67816091954023</v>
-      </c>
-      <c r="F180" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-1.52838427947599</v>
-      </c>
-      <c r="H180" t="n">
-        <v>-5.33333333333333</v>
-      </c>
-      <c r="I180" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="J180" t="n">
-        <v>3.32640332640332</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>2017-12</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>14.4943820224719</v>
-      </c>
-      <c r="C181" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="D181" t="n">
-        <v>-4.58801498127342</v>
-      </c>
-      <c r="E181" t="n">
-        <v>4.23825887743412</v>
-      </c>
-      <c r="F181" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.886917960088681</v>
-      </c>
-      <c r="H181" t="n">
-        <v>7.93650793650795</v>
-      </c>
-      <c r="I181" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="J181" t="n">
-        <v>9.45674044265594</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>2018-01</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>9.6174863387978</v>
-      </c>
-      <c r="C182" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="D182" t="n">
-        <v>-1.57016683022572</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1.87224669603525</v>
-      </c>
-      <c r="F182" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="G182" t="n">
-        <v>1.64835164835165</v>
-      </c>
-      <c r="H182" t="n">
-        <v>20.6627680311891</v>
-      </c>
-      <c r="I182" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="J182" t="n">
-        <v>13.7867647058824</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>2018-02</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>10.0217864923747</v>
-      </c>
-      <c r="C183" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.697906281156534</v>
-      </c>
-      <c r="E183" t="n">
-        <v>6.24999999999997</v>
-      </c>
-      <c r="F183" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="G183" t="n">
-        <v>2.9189189189189</v>
-      </c>
-      <c r="H183" t="n">
-        <v>31.1764705882353</v>
-      </c>
-      <c r="I183" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="J183" t="n">
-        <v>8.077544426494359</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>2018-03</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>6.69546436285098</v>
-      </c>
-      <c r="C184" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="D184" t="n">
-        <v>-2.17821782178217</v>
-      </c>
-      <c r="E184" t="n">
-        <v>2.65193370165744</v>
-      </c>
-      <c r="F184" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-2.41596638655463</v>
-      </c>
-      <c r="H184" t="n">
-        <v>19.6261682242991</v>
-      </c>
-      <c r="I184" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J184" t="n">
-        <v>-4.33482810164425</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>2018-04</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>-3.07845084409136</v>
-      </c>
-      <c r="C185" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="D185" t="n">
-        <v>-1.21457489878544</v>
-      </c>
-      <c r="E185" t="n">
-        <v>-0.432432432432421</v>
-      </c>
-      <c r="F185" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-0.861141011840672</v>
-      </c>
-      <c r="H185" t="n">
-        <v>9.91452991452992</v>
-      </c>
-      <c r="I185" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0.46875</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>2018-05</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>-4.46343779677112</v>
-      </c>
-      <c r="C186" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="D186" t="n">
-        <v>3.07377049180329</v>
-      </c>
-      <c r="E186" t="n">
-        <v>-0.852878464818758</v>
-      </c>
-      <c r="F186" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.977198697068403</v>
-      </c>
-      <c r="H186" t="n">
-        <v>-1.75159235668791</v>
-      </c>
-      <c r="I186" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J186" t="n">
-        <v>-4.04354587869362</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>2018-06</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>-3.48499515972894</v>
-      </c>
-      <c r="C187" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="D187" t="n">
-        <v>-0.894632206759439</v>
-      </c>
-      <c r="E187" t="n">
-        <v>-2.71966527196652</v>
-      </c>
-      <c r="F187" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0</v>
-      </c>
-      <c r="H187" t="n">
-        <v>-1.34003350083752</v>
-      </c>
-      <c r="I187" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J187" t="n">
-        <v>-4.53808752025932</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="inlineStr">
-        <is>
-          <t>2018-07</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>-6.06060606060606</v>
-      </c>
-      <c r="C188" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="D188" t="n">
-        <v>-0.501504513540624</v>
-      </c>
-      <c r="E188" t="n">
-        <v>-0.518134715025909</v>
-      </c>
-      <c r="F188" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="G188" t="n">
-        <v>3.2258064516129</v>
-      </c>
-      <c r="H188" t="n">
-        <v>3.69718309859155</v>
-      </c>
-      <c r="I188" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>2018-08</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>-5.3211009174312</v>
-      </c>
-      <c r="C189" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="D189" t="n">
-        <v>4.03225806451613</v>
-      </c>
-      <c r="E189" t="n">
-        <v>3.22245322245323</v>
-      </c>
-      <c r="F189" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="G189" t="n">
-        <v>3.4375</v>
-      </c>
-      <c r="H189" t="n">
-        <v>16.5441176470588</v>
-      </c>
-      <c r="I189" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="J189" t="n">
-        <v>7.64006791171477</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="inlineStr">
-        <is>
-          <t>2018-09</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>-2.96495956873315</v>
-      </c>
-      <c r="C190" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D190" t="n">
-        <v>4.65116279069768</v>
-      </c>
-      <c r="E190" t="n">
-        <v>6.87830687830689</v>
-      </c>
-      <c r="F190" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="G190" t="n">
-        <v>1.71198388721048</v>
-      </c>
-      <c r="H190" t="n">
-        <v>27.5665399239544</v>
-      </c>
-      <c r="I190" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="J190" t="n">
-        <v>5.83596214511041</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>2018-10</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>-1.96428571428571</v>
-      </c>
-      <c r="C191" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1.66666666666666</v>
-      </c>
-      <c r="E191" t="n">
-        <v>8.296943231441061</v>
-      </c>
-      <c r="F191" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-1.78217821782178</v>
-      </c>
-      <c r="H191" t="n">
-        <v>38.2536382536383</v>
-      </c>
-      <c r="I191" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="J191" t="n">
-        <v>-0.894187779433679</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="inlineStr">
-        <is>
-          <t>2018-11</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>-1.96629213483145</v>
-      </c>
-      <c r="C192" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D192" t="n">
-        <v>-4.64480874316939</v>
-      </c>
-      <c r="E192" t="n">
-        <v>9.423503325942351</v>
-      </c>
-      <c r="F192" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-0.504032258064527</v>
-      </c>
-      <c r="H192" t="n">
-        <v>40.2414486921529</v>
-      </c>
-      <c r="I192" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="J192" t="n">
-        <v>4.81203007518796</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="inlineStr">
-        <is>
-          <t>2018-12</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>-0.883218842001966</v>
-      </c>
-      <c r="C193" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="D193" t="n">
-        <v>-3.53390639923592</v>
-      </c>
-      <c r="E193" t="n">
-        <v>10</v>
-      </c>
-      <c r="F193" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="G193" t="n">
-        <v>1.41843971631207</v>
-      </c>
-      <c r="H193" t="n">
-        <v>26.1029411764706</v>
-      </c>
-      <c r="I193" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="J193" t="n">
-        <v>-1.57819225251076</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="inlineStr">
-        <is>
-          <t>2019-01</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>1.79461615154537</v>
-      </c>
-      <c r="C194" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1.08910891089108</v>
-      </c>
-      <c r="E194" t="n">
-        <v>12.972972972973</v>
-      </c>
-      <c r="F194" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="G194" t="n">
-        <v>4.39560439560438</v>
-      </c>
-      <c r="H194" t="n">
-        <v>10.9854604200323</v>
-      </c>
-      <c r="I194" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="J194" t="n">
-        <v>0.145772594752188</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="inlineStr">
-        <is>
-          <t>2019-02</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>-0.297029702970292</v>
-      </c>
-      <c r="C195" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="D195" t="n">
-        <v>-1.37120470127327</v>
-      </c>
-      <c r="E195" t="n">
-        <v>12.0798319327731</v>
-      </c>
-      <c r="F195" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="G195" t="n">
-        <v>2.10526315789474</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1.79372197309415</v>
-      </c>
-      <c r="I195" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="J195" t="n">
-        <v>-0.873362445414855</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>2019-03</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>0.708502024291491</v>
-      </c>
-      <c r="C196" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="D196" t="n">
-        <v>-1.19165839126119</v>
-      </c>
-      <c r="E196" t="n">
-        <v>16.8998923573735</v>
-      </c>
-      <c r="F196" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="G196" t="n">
-        <v>1.78069353327083</v>
-      </c>
-      <c r="H196" t="n">
-        <v>5.31249999999999</v>
-      </c>
-      <c r="I196" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="J196" t="n">
-        <v>-1.02790014684287</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="inlineStr">
-        <is>
-          <t>2019-04</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>6.04508196721312</v>
-      </c>
-      <c r="C197" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="D197" t="n">
-        <v>4.02010050251256</v>
-      </c>
-      <c r="E197" t="n">
-        <v>24.7557003257329</v>
-      </c>
-      <c r="F197" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="G197" t="n">
-        <v>5.8011049723757</v>
-      </c>
-      <c r="H197" t="n">
-        <v>4.97667185069986</v>
-      </c>
-      <c r="I197" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="J197" t="n">
-        <v>0.14836795252225</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="inlineStr">
-        <is>
-          <t>2019-05</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>12.2266401590457</v>
-      </c>
-      <c r="C198" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="D198" t="n">
-        <v>9.08212560386472</v>
-      </c>
-      <c r="E198" t="n">
-        <v>45.9139784946236</v>
-      </c>
-      <c r="F198" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="G198" t="n">
-        <v>18.1026979982594</v>
-      </c>
-      <c r="H198" t="n">
-        <v>9.88654781199352</v>
-      </c>
-      <c r="I198" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="J198" t="n">
-        <v>0.444444444444443</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="inlineStr">
-        <is>
-          <t>2019-06</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>17.753259779338</v>
-      </c>
-      <c r="C199" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="D199" t="n">
-        <v>3.98582816651904</v>
-      </c>
-      <c r="E199" t="n">
-        <v>67.5268817204301</v>
-      </c>
-      <c r="F199" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="G199" t="n">
-        <v>14.8120854826824</v>
-      </c>
-      <c r="H199" t="n">
-        <v>12.5636672325976</v>
-      </c>
-      <c r="I199" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="J199" t="n">
-        <v>-2.21238938053098</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="inlineStr">
-        <is>
-          <t>2019-07</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>15.9274193548387</v>
-      </c>
-      <c r="C200" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D200" t="n">
-        <v>-2.0442930153322</v>
-      </c>
-      <c r="E200" t="n">
-        <v>67.9166666666667</v>
-      </c>
-      <c r="F200" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="G200" t="n">
-        <v>3.46598202824133</v>
-      </c>
-      <c r="H200" t="n">
-        <v>7.30050933786079</v>
-      </c>
-      <c r="I200" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="J200" t="n">
-        <v>-4.67571644042232</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="inlineStr">
-        <is>
-          <t>2019-08</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>10.562015503876</v>
-      </c>
-      <c r="C201" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="D201" t="n">
-        <v>-0.7826086956521719</v>
-      </c>
-      <c r="E201" t="n">
-        <v>56.1933534743202</v>
-      </c>
-      <c r="F201" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-3.78411910669976</v>
-      </c>
-      <c r="H201" t="n">
-        <v>-0.15772870662461</v>
-      </c>
-      <c r="I201" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="J201" t="n">
-        <v>0.158227848101262</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="inlineStr">
-        <is>
-          <t>2019-09</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>6.38888888888889</v>
-      </c>
-      <c r="C202" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0.701139351446088</v>
-      </c>
-      <c r="E202" t="n">
-        <v>27.6237623762376</v>
-      </c>
-      <c r="F202" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-16.8923275306254</v>
-      </c>
-      <c r="H202" t="n">
-        <v>-4.32190760059613</v>
-      </c>
-      <c r="I202" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="J202" t="n">
-        <v>1.4218009478673</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="inlineStr">
-        <is>
-          <t>2019-10</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>5.64663023679417</v>
-      </c>
-      <c r="C203" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0.957354221061777</v>
-      </c>
-      <c r="E203" t="n">
-        <v>11.3911290322581</v>
-      </c>
-      <c r="F203" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-14.2746314972847</v>
-      </c>
-      <c r="H203" t="n">
-        <v>-5.71428571428572</v>
-      </c>
-      <c r="I203" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="J203" t="n">
-        <v>-2.33644859813084</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="inlineStr">
-        <is>
-          <t>2019-11</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>6.97230181470867</v>
-      </c>
-      <c r="C204" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D204" t="n">
-        <v>-3.44827586206897</v>
-      </c>
-      <c r="E204" t="n">
-        <v>2.02634245187438</v>
-      </c>
-      <c r="F204" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-8.86877828054298</v>
-      </c>
-      <c r="H204" t="n">
-        <v>-14.2037302725968</v>
-      </c>
-      <c r="I204" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="J204" t="n">
-        <v>-4.62519936204146</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="inlineStr">
-        <is>
-          <t>2019-12</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>7.02970297029704</v>
-      </c>
-      <c r="C205" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="D205" t="n">
-        <v>-3.48214285714285</v>
-      </c>
-      <c r="E205" t="n">
-        <v>-1.4985014985015</v>
-      </c>
-      <c r="F205" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-2.08540218470706</v>
-      </c>
-      <c r="H205" t="n">
-        <v>-13.7026239067055</v>
-      </c>
-      <c r="I205" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="J205" t="n">
-        <v>-1.00334448160537</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="inlineStr">
-        <is>
-          <t>2020-01</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>5.9745347698335</v>
-      </c>
-      <c r="C206" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0.09250693802033499</v>
-      </c>
-      <c r="E206" t="n">
-        <v>-3.82775119617223</v>
-      </c>
-      <c r="F206" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="G206" t="n">
-        <v>1.9269776876268</v>
-      </c>
-      <c r="H206" t="n">
-        <v>-8.296943231441061</v>
-      </c>
-      <c r="I206" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J206" t="n">
-        <v>6.41891891891892</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="inlineStr">
-        <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>9.73187686196624</v>
-      </c>
-      <c r="C207" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="D207" t="n">
-        <v>2.1256931608133</v>
-      </c>
-      <c r="E207" t="n">
-        <v>-3.37394564198688</v>
-      </c>
-      <c r="F207" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="G207" t="n">
-        <v>2.58706467661692</v>
-      </c>
-      <c r="H207" t="n">
-        <v>2.34948604992657</v>
-      </c>
-      <c r="I207" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="J207" t="n">
-        <v>10.6349206349206</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="inlineStr">
-        <is>
-          <t>2020-03</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>7.53768844221105</v>
-      </c>
-      <c r="C208" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D208" t="n">
-        <v>-3.16742081447965</v>
-      </c>
-      <c r="E208" t="n">
-        <v>-6.353591160221</v>
-      </c>
-      <c r="F208" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-1.35790494665375</v>
-      </c>
-      <c r="H208" t="n">
-        <v>4.45103857566764</v>
-      </c>
-      <c r="I208" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="J208" t="n">
-        <v>1.00430416068866</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>3.38164251207729</v>
-      </c>
-      <c r="C209" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0</v>
-      </c>
-      <c r="E209" t="n">
-        <v>-12.532637075718</v>
-      </c>
-      <c r="F209" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-1.17994100294985</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1.33333333333334</v>
-      </c>
-      <c r="I209" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="J209" t="n">
-        <v>-2.84090909090909</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>-5.13728963684676</v>
-      </c>
-      <c r="C210" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0.093457943925259</v>
-      </c>
-      <c r="E210" t="n">
-        <v>-25.8658806190125</v>
-      </c>
-      <c r="F210" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0.099502487562191</v>
-      </c>
-      <c r="H210" t="n">
-        <v>-3.98230088495576</v>
-      </c>
-      <c r="I210" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="J210" t="n">
-        <v>-4.82456140350878</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>-8.94378194207836</v>
-      </c>
-      <c r="C211" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="D211" t="n">
-        <v>-0.186741363211965</v>
-      </c>
-      <c r="E211" t="n">
-        <v>-34.9807445442875</v>
-      </c>
-      <c r="F211" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0.6958250497017811</v>
-      </c>
-      <c r="H211" t="n">
-        <v>-8.597285067873299</v>
-      </c>
-      <c r="I211" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J211" t="n">
-        <v>-6.91244239631337</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>-6.26086956521739</v>
-      </c>
-      <c r="C212" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0.841908325537872</v>
-      </c>
-      <c r="E212" t="n">
-        <v>-36.1042183622829</v>
-      </c>
-      <c r="F212" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="G212" t="n">
-        <v>1.6781836130306</v>
-      </c>
-      <c r="H212" t="n">
-        <v>-7.59493670886077</v>
-      </c>
-      <c r="I212" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J212" t="n">
-        <v>-3.63036303630363</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>-3.24276950043823</v>
-      </c>
-      <c r="C213" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="D213" t="n">
-        <v>2.41187384044528</v>
-      </c>
-      <c r="E213" t="n">
-        <v>-33.9136041263701</v>
-      </c>
-      <c r="F213" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-0.485436893203897</v>
-      </c>
-      <c r="H213" t="n">
-        <v>-7.74091627172197</v>
-      </c>
-      <c r="I213" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J213" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>-2.26283724978241</v>
-      </c>
-      <c r="C214" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="D214" t="n">
-        <v>1.72101449275364</v>
-      </c>
-      <c r="E214" t="n">
-        <v>-21.877424359969</v>
-      </c>
-      <c r="F214" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-1.7560975609756</v>
-      </c>
-      <c r="H214" t="n">
-        <v>-5.9190031152648</v>
-      </c>
-      <c r="I214" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="J214" t="n">
-        <v>3.42465753424659</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>-1.1206896551724</v>
-      </c>
-      <c r="C215" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="D215" t="n">
-        <v>2.13713268032056</v>
-      </c>
-      <c r="E215" t="n">
-        <v>-11.6742081447964</v>
-      </c>
-      <c r="F215" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-3.07845084409136</v>
-      </c>
-      <c r="H215" t="n">
-        <v>-5.74162679425837</v>
-      </c>
-      <c r="I215" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="J215" t="n">
-        <v>-2.1523178807947</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>-4.46428571428571</v>
-      </c>
-      <c r="C216" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D216" t="n">
-        <v>-6.71316477768092</v>
-      </c>
-      <c r="E216" t="n">
-        <v>-4.07149950347568</v>
-      </c>
-      <c r="F216" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-1.02459016393442</v>
-      </c>
-      <c r="H216" t="n">
-        <v>-2.67558528428094</v>
-      </c>
-      <c r="I216" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J216" t="n">
-        <v>-1.5228426395939</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>-7.40055504162814</v>
-      </c>
-      <c r="C217" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="D217" t="n">
-        <v>-6.44859813084112</v>
-      </c>
-      <c r="E217" t="n">
-        <v>-1.62271805273834</v>
-      </c>
-      <c r="F217" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0.414078674948229</v>
-      </c>
-      <c r="H217" t="n">
-        <v>-2.70270270270271</v>
-      </c>
-      <c r="I217" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="J217" t="n">
-        <v>-1.03092783505156</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>-9.42698706099814</v>
-      </c>
-      <c r="C218" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="D218" t="n">
-        <v>-2.09790209790209</v>
-      </c>
-      <c r="E218" t="n">
-        <v>-2.38805970149254</v>
-      </c>
-      <c r="F218" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="G218" t="n">
-        <v>1.13402061855672</v>
-      </c>
-      <c r="H218" t="n">
-        <v>-5.23809523809524</v>
-      </c>
-      <c r="I218" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J218" t="n">
-        <v>3.64583333333333</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>-10.0452488687783</v>
-      </c>
-      <c r="C219" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="D219" t="n">
-        <v>1.42857142857142</v>
-      </c>
-      <c r="E219" t="n">
-        <v>-3.87972841901067</v>
-      </c>
-      <c r="F219" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="G219" t="n">
-        <v>1.01936799184506</v>
-      </c>
-      <c r="H219" t="n">
-        <v>-5.30846484935438</v>
-      </c>
-      <c r="I219" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J219" t="n">
-        <v>10.5527638190955</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>-9.81308411214953</v>
-      </c>
-      <c r="C220" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="D220" t="n">
-        <v>-2.91750503018108</v>
-      </c>
-      <c r="E220" t="n">
-        <v>-3.63815142576203</v>
-      </c>
-      <c r="F220" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-1.10998990918264</v>
-      </c>
-      <c r="H220" t="n">
-        <v>-6.67613636363636</v>
-      </c>
-      <c r="I220" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="J220" t="n">
-        <v>-0.454545454545439</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>-9.626168224299059</v>
-      </c>
-      <c r="C221" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0.207253886010349</v>
-      </c>
-      <c r="E221" t="n">
-        <v>-4.47761194029852</v>
-      </c>
-      <c r="F221" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-2.04081632653063</v>
-      </c>
-      <c r="H221" t="n">
-        <v>-8.62573099415205</v>
-      </c>
-      <c r="I221" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J221" t="n">
-        <v>-4.87062404870625</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>-7.09617180205417</v>
-      </c>
-      <c r="C222" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="D222" t="n">
-        <v>2.89555325749743</v>
-      </c>
-      <c r="E222" t="n">
-        <v>-6.56063618290258</v>
-      </c>
-      <c r="F222" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-2.08333333333333</v>
-      </c>
-      <c r="H222" t="n">
-        <v>-5.3763440860215</v>
-      </c>
-      <c r="I222" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="J222" t="n">
-        <v>-1.44</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>-5.70626753975678</v>
-      </c>
-      <c r="C223" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="D223" t="n">
-        <v>1.3065326633166</v>
-      </c>
-      <c r="E223" t="n">
-        <v>-7.79861796643634</v>
-      </c>
-      <c r="F223" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-0.638297872340431</v>
-      </c>
-      <c r="H223" t="n">
-        <v>-1.98019801980197</v>
-      </c>
-      <c r="I223" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="J223" t="n">
-        <v>-3.57142857142857</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>-1.0204081632653</v>
-      </c>
-      <c r="C224" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="D224" t="n">
-        <v>5.85317460317461</v>
-      </c>
-      <c r="E224" t="n">
-        <v>-8.15533980582525</v>
-      </c>
-      <c r="F224" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="G224" t="n">
-        <v>1.28479657387581</v>
-      </c>
-      <c r="H224" t="n">
-        <v>4.7945205479452</v>
-      </c>
-      <c r="I224" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="J224" t="n">
-        <v>3.03030303030303</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>-0.6340579710000001</v>
-      </c>
-      <c r="C225" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="D225" t="n">
-        <v>2.8116213683</v>
-      </c>
-      <c r="E225" t="n">
-        <v>-7.0243902439</v>
-      </c>
-      <c r="F225" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0.7399577167</v>
-      </c>
-      <c r="H225" t="n">
-        <v>5.8219178082</v>
-      </c>
-      <c r="I225" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="J225" t="n">
-        <v>0.9803921569</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>-0.6233303651</v>
-      </c>
-      <c r="C226" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1.7319963537</v>
-      </c>
-      <c r="E226" t="n">
-        <v>-5.9582919563</v>
-      </c>
-      <c r="F226" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-0.629590766</v>
-      </c>
-      <c r="H226" t="n">
-        <v>-1.9867549669</v>
-      </c>
-      <c r="I226" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="J226" t="n">
-        <v>-4.2071197411</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>-0.4359197908</v>
-      </c>
-      <c r="C227" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="D227" t="n">
-        <v>2.3297491039</v>
-      </c>
-      <c r="E227" t="n">
-        <v>-4.7131147541</v>
-      </c>
-      <c r="F227" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-1.7951425554</v>
-      </c>
-      <c r="H227" t="n">
-        <v>-1.1844331641</v>
-      </c>
-      <c r="I227" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J227" t="n">
-        <v>-1.3513513514</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>1.9626168224</v>
-      </c>
-      <c r="C228" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="D228" t="n">
-        <v>-4.465849387</v>
-      </c>
-      <c r="E228" t="n">
-        <v>-3.933747412</v>
-      </c>
-      <c r="F228" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-0.2150537634</v>
-      </c>
-      <c r="H228" t="n">
-        <v>8.4192439863</v>
-      </c>
-      <c r="I228" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="J228" t="n">
-        <v>8.0479452055</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>3.8961038961</v>
-      </c>
-      <c r="C229" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="D229" t="n">
-        <v>-4.6746104491</v>
-      </c>
-      <c r="E229" t="n">
-        <v>-2.8865979381</v>
-      </c>
-      <c r="F229" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="G229" t="n">
-        <v>1.5086206897</v>
-      </c>
-      <c r="H229" t="n">
-        <v>15.4513888889</v>
-      </c>
-      <c r="I229" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="J229" t="n">
-        <v>5.3882725832</v>
+        <v>-5.8201058201</v>
       </c>
     </row>
   </sheetData>
